--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-874510.9870966059</v>
+        <v>-875228.223712085</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4950248.695730078</v>
+        <v>4950248.69573008</v>
       </c>
     </row>
     <row r="8">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.1078504188222</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>220.100471421032</v>
+        <v>220.1004714210319</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>261.0144250789147</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>262.340905115763</v>
+        <v>262.3409051157629</v>
       </c>
       <c r="H11" t="n">
-        <v>174.2835417775415</v>
+        <v>174.2835417775414</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.53425353909805</v>
+        <v>22.53425353909799</v>
       </c>
       <c r="T11" t="n">
-        <v>70.46388924261862</v>
+        <v>70.46388924261856</v>
       </c>
       <c r="U11" t="n">
         <v>103.2926861902832</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>151.5201214967136</v>
       </c>
       <c r="W11" t="n">
-        <v>99.92335630183783</v>
+        <v>209.9143271369582</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>240.6111831659036</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.829994649431569</v>
+        <v>8.829994649431512</v>
       </c>
       <c r="C12" t="n">
-        <v>11.09138232743814</v>
+        <v>21.7743234833412</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>56.52047122575467</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.02901935393508</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>145.2410726443113</v>
       </c>
       <c r="T12" t="n">
-        <v>185.4896446502776</v>
+        <v>36.49439094626081</v>
       </c>
       <c r="U12" t="n">
-        <v>216.28848525876</v>
+        <v>67.29323155474326</v>
       </c>
       <c r="V12" t="n">
-        <v>77.11641262213266</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>132.7688433372487</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>41.60085938290018</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.72456129351932</v>
+        <v>32.72456129351926</v>
       </c>
       <c r="C13" t="n">
-        <v>18.9245561389198</v>
+        <v>18.92455613891974</v>
       </c>
       <c r="D13" t="n">
-        <v>2.545920536498187</v>
+        <v>2.54592053649813</v>
       </c>
       <c r="E13" t="n">
-        <v>1.493670392277636</v>
+        <v>1.493670392277579</v>
       </c>
       <c r="F13" t="n">
-        <v>1.960594720463945</v>
+        <v>1.960594720463888</v>
       </c>
       <c r="G13" t="n">
-        <v>17.96311329697634</v>
+        <v>17.96311329697629</v>
       </c>
       <c r="H13" t="n">
-        <v>6.363700576783472</v>
+        <v>6.363700576783414</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.83398394224589</v>
+        <v>57.83398394224584</v>
       </c>
       <c r="T13" t="n">
-        <v>80.68894132961891</v>
+        <v>80.68894132961886</v>
       </c>
       <c r="U13" t="n">
-        <v>135.3082370038743</v>
+        <v>135.3082370038742</v>
       </c>
       <c r="V13" t="n">
-        <v>109.1326976931449</v>
+        <v>109.1326976931448</v>
       </c>
       <c r="W13" t="n">
-        <v>134.2995837637582</v>
+        <v>134.2995837637581</v>
       </c>
       <c r="X13" t="n">
-        <v>79.94468575956128</v>
+        <v>79.94468575956122</v>
       </c>
       <c r="Y13" t="n">
-        <v>70.81955351562897</v>
+        <v>70.81955351562891</v>
       </c>
     </row>
     <row r="14">
@@ -1607,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>229.1191673765039</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>220.1004714210319</v>
       </c>
       <c r="E14" t="n">
         <v>241.8426089909374</v>
       </c>
       <c r="F14" t="n">
-        <v>261.0144250789145</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>262.3409051157628</v>
+        <v>49.42593174166976</v>
       </c>
       <c r="H14" t="n">
         <v>174.2835417775414</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.53425353909797</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>70.46388924261854</v>
+        <v>70.46388924261856</v>
       </c>
       <c r="U14" t="n">
-        <v>103.2926861902832</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>184.6142276590013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>134.6748414917535</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>229.2145853697048</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>240.6111831659036</v>
       </c>
     </row>
     <row r="15">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.84824959637808</v>
+        <v>8.829994649431512</v>
       </c>
       <c r="C15" t="n">
-        <v>11.09138232743805</v>
+        <v>12.07237865644177</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>56.52047122575468</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>39.02901935393508</v>
       </c>
       <c r="S15" t="n">
-        <v>145.2410726443114</v>
+        <v>145.2410726443113</v>
       </c>
       <c r="T15" t="n">
         <v>185.4896446502776</v>
@@ -1752,7 +1752,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>41.60085938290015</v>
+        <v>41.60085938290018</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.72456129351923</v>
+        <v>32.72456129351926</v>
       </c>
       <c r="C16" t="n">
-        <v>18.92455613891971</v>
+        <v>18.92455613891974</v>
       </c>
       <c r="D16" t="n">
-        <v>2.545920536498102</v>
+        <v>2.54592053649813</v>
       </c>
       <c r="E16" t="n">
-        <v>1.493670392277551</v>
+        <v>1.493670392277579</v>
       </c>
       <c r="F16" t="n">
-        <v>1.96059472046386</v>
+        <v>1.960594720463888</v>
       </c>
       <c r="G16" t="n">
-        <v>17.96311329697626</v>
+        <v>17.96311329697627</v>
       </c>
       <c r="H16" t="n">
-        <v>6.363700576783387</v>
+        <v>6.363700576783401</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.83398394224582</v>
+        <v>57.83398394224585</v>
       </c>
       <c r="T16" t="n">
-        <v>80.68894132961883</v>
+        <v>80.68894132961884</v>
       </c>
       <c r="U16" t="n">
         <v>135.3082370038742</v>
@@ -1828,10 +1828,10 @@
         <v>134.2995837637581</v>
       </c>
       <c r="X16" t="n">
-        <v>79.9446857595612</v>
+        <v>79.94468575956122</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.81955351562888</v>
+        <v>70.81955351562891</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.9083003675343</v>
+        <v>145.9083003675344</v>
       </c>
       <c r="C17" t="n">
-        <v>133.919617325216</v>
+        <v>133.9196173252161</v>
       </c>
       <c r="D17" t="n">
-        <v>124.9009213697457</v>
+        <v>124.9009213697441</v>
       </c>
       <c r="E17" t="n">
-        <v>146.6430589396495</v>
+        <v>146.6430589396496</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8148750276267</v>
+        <v>165.8148750276268</v>
       </c>
       <c r="G17" t="n">
-        <v>167.141355064475</v>
+        <v>167.1413550644751</v>
       </c>
       <c r="H17" t="n">
-        <v>79.08399172625349</v>
+        <v>79.0839917262536</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.093136138995266</v>
+        <v>8.093136138995391</v>
       </c>
       <c r="V17" t="n">
-        <v>89.41467760771337</v>
+        <v>89.41467760771349</v>
       </c>
       <c r="W17" t="n">
-        <v>114.7147770856703</v>
+        <v>114.7147770856704</v>
       </c>
       <c r="X17" t="n">
-        <v>134.0150353184169</v>
+        <v>134.015035318417</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.4116331146157</v>
+        <v>145.4116331146158</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>56.52047122575468</v>
+        <v>56.52047122575467</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S18" t="n">
-        <v>145.2410726443114</v>
+        <v>145.2410726443113</v>
       </c>
       <c r="T18" t="n">
-        <v>52.11618215438745</v>
+        <v>66.23302524767929</v>
       </c>
       <c r="U18" t="n">
         <v>216.28848525876</v>
@@ -1989,7 +1989,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>112.8988195807889</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>109.9601519154108</v>
+        <v>40.10868695258642</v>
       </c>
       <c r="V19" t="n">
-        <v>13.93314764185692</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>39.10003371247018</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>167.141355064475</v>
       </c>
       <c r="H20" t="n">
-        <v>79.08399172625349</v>
+        <v>79.08399172625352</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.093136138995266</v>
+        <v>8.093136138995295</v>
       </c>
       <c r="V20" t="n">
-        <v>89.41467760771337</v>
+        <v>89.4146776077134</v>
       </c>
       <c r="W20" t="n">
         <v>114.7147770856703</v>
       </c>
       <c r="X20" t="n">
-        <v>134.0150353184169</v>
+        <v>134.0150353184167</v>
       </c>
       <c r="Y20" t="n">
         <v>145.4116331146157</v>
@@ -2172,7 +2172,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.02901935393508</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>92.79038011232086</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>216.28848525876</v>
       </c>
       <c r="V21" t="n">
-        <v>193.7792440268273</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>15.3602574048548</v>
       </c>
       <c r="R22" t="n">
-        <v>47.19425243613466</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>40.1086869525863</v>
+        <v>40.10868695258633</v>
       </c>
       <c r="V22" t="n">
-        <v>13.93314764185692</v>
+        <v>13.93314764185695</v>
       </c>
       <c r="W22" t="n">
-        <v>39.10003371247018</v>
+        <v>49.26032941322783</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>167.141355064475</v>
       </c>
       <c r="H23" t="n">
-        <v>79.08399172625349</v>
+        <v>79.08399172625352</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.093136138995266</v>
+        <v>8.093136138995295</v>
       </c>
       <c r="V23" t="n">
-        <v>89.41467760771337</v>
+        <v>89.4146776077134</v>
       </c>
       <c r="W23" t="n">
         <v>114.7147770856703</v>
@@ -2397,25 +2397,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I24" t="n">
-        <v>56.52047122575468</v>
+        <v>56.52047122575467</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.02901935393508</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>145.2410726443114</v>
+        <v>145.2410726443113</v>
       </c>
       <c r="T24" t="n">
-        <v>146.4340228700768</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U24" t="n">
         <v>216.28848525876</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>185.5075884001375</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>40.21324716010341</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>16.82575679210425</v>
       </c>
       <c r="U25" t="n">
-        <v>40.1086869525863</v>
+        <v>40.10868695258633</v>
       </c>
       <c r="V25" t="n">
-        <v>13.93314764185692</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>102.1649196449916</v>
+        <v>39.10003371247021</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2555,25 @@
         <v>288.9838039006341</v>
       </c>
       <c r="C26" t="n">
-        <v>276.9951208583158</v>
+        <v>276.9951208583159</v>
       </c>
       <c r="D26" t="n">
-        <v>267.9764249028438</v>
+        <v>267.9764249028439</v>
       </c>
       <c r="E26" t="n">
-        <v>289.7185624727493</v>
+        <v>289.7185624727494</v>
       </c>
       <c r="F26" t="n">
-        <v>308.8903785607265</v>
+        <v>308.8903785607266</v>
       </c>
       <c r="G26" t="n">
-        <v>310.2168585975748</v>
+        <v>310.2168585975749</v>
       </c>
       <c r="H26" t="n">
-        <v>222.1594952593533</v>
+        <v>222.1594952593534</v>
       </c>
       <c r="I26" t="n">
-        <v>46.57653758629984</v>
+        <v>46.57653758629988</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.41020702090988</v>
+        <v>70.41020702090995</v>
       </c>
       <c r="T26" t="n">
         <v>118.3398427244305</v>
       </c>
       <c r="U26" t="n">
-        <v>151.1686396720951</v>
+        <v>151.1686396720952</v>
       </c>
       <c r="V26" t="n">
-        <v>232.4901811408132</v>
+        <v>232.4901811408133</v>
       </c>
       <c r="W26" t="n">
-        <v>257.7902806187701</v>
+        <v>257.7902806187702</v>
       </c>
       <c r="X26" t="n">
-        <v>277.0905388515167</v>
+        <v>277.0905388515168</v>
       </c>
       <c r="Y26" t="n">
         <v>288.4871366477155</v>
@@ -2652,7 +2652,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I27" t="n">
-        <v>56.52047122575468</v>
+        <v>56.52047122575467</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>39.02901935393508</v>
       </c>
       <c r="S27" t="n">
-        <v>145.2410726443114</v>
+        <v>145.2410726443113</v>
       </c>
       <c r="T27" t="n">
         <v>185.4896446502776</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.60051477533115</v>
+        <v>80.60051477533122</v>
       </c>
       <c r="C28" t="n">
-        <v>66.80050962073163</v>
+        <v>66.8005096207317</v>
       </c>
       <c r="D28" t="n">
-        <v>50.42187401831002</v>
+        <v>50.42187401831009</v>
       </c>
       <c r="E28" t="n">
-        <v>49.36962387408947</v>
+        <v>49.36962387408954</v>
       </c>
       <c r="F28" t="n">
-        <v>49.83654820227578</v>
+        <v>49.83654820227585</v>
       </c>
       <c r="G28" t="n">
-        <v>65.83906677878818</v>
+        <v>65.83906677878824</v>
       </c>
       <c r="H28" t="n">
-        <v>54.23965405859531</v>
+        <v>54.23965405859536</v>
       </c>
       <c r="I28" t="n">
-        <v>33.45639417554671</v>
+        <v>33.45639417554676</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66887443723265</v>
+        <v>34.66887443723272</v>
       </c>
       <c r="S28" t="n">
-        <v>105.7099374240577</v>
+        <v>105.7099374240578</v>
       </c>
       <c r="T28" t="n">
-        <v>128.5648948114307</v>
+        <v>128.5648948114308</v>
       </c>
       <c r="U28" t="n">
-        <v>183.1841904856861</v>
+        <v>183.1841904856862</v>
       </c>
       <c r="V28" t="n">
         <v>157.0086511749568</v>
       </c>
       <c r="W28" t="n">
-        <v>182.17553724557</v>
+        <v>182.1755372455701</v>
       </c>
       <c r="X28" t="n">
-        <v>127.8206392413731</v>
+        <v>127.8206392413732</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.6955069974408</v>
+        <v>118.6955069974409</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>222.1594952593534</v>
       </c>
       <c r="I29" t="n">
-        <v>46.57653758629988</v>
+        <v>46.57653758629986</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.41020702090995</v>
+        <v>70.41020702090994</v>
       </c>
       <c r="T29" t="n">
         <v>118.3398427244305</v>
       </c>
       <c r="U29" t="n">
-        <v>151.1686396720952</v>
+        <v>151.1686396720951</v>
       </c>
       <c r="V29" t="n">
         <v>232.4901811408133</v>
@@ -2889,7 +2889,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I30" t="n">
-        <v>56.52047122575466</v>
+        <v>56.52047122575467</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.02901935393506</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S30" t="n">
         <v>145.2410726443113</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.60051477533122</v>
+        <v>80.60051477533121</v>
       </c>
       <c r="C31" t="n">
-        <v>66.8005096207317</v>
+        <v>66.80050962073169</v>
       </c>
       <c r="D31" t="n">
-        <v>50.42187401831009</v>
+        <v>50.42187401831008</v>
       </c>
       <c r="E31" t="n">
-        <v>49.36962387408954</v>
+        <v>49.36962387408953</v>
       </c>
       <c r="F31" t="n">
-        <v>49.83654820227585</v>
+        <v>49.83654820227584</v>
       </c>
       <c r="G31" t="n">
         <v>65.83906677878824</v>
       </c>
       <c r="H31" t="n">
-        <v>54.23965405859538</v>
+        <v>54.23965405859536</v>
       </c>
       <c r="I31" t="n">
         <v>33.45639417554676</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66887443723271</v>
+        <v>34.6688744372327</v>
       </c>
       <c r="S31" t="n">
         <v>105.7099374240578</v>
@@ -3029,25 +3029,25 @@
         <v>288.9838039006341</v>
       </c>
       <c r="C32" t="n">
-        <v>276.9951208583158</v>
+        <v>276.9951208583159</v>
       </c>
       <c r="D32" t="n">
-        <v>267.9764249028438</v>
+        <v>267.9764249028439</v>
       </c>
       <c r="E32" t="n">
-        <v>289.7185624727493</v>
+        <v>289.7185624727494</v>
       </c>
       <c r="F32" t="n">
-        <v>308.8903785607265</v>
+        <v>308.8903785607266</v>
       </c>
       <c r="G32" t="n">
-        <v>310.2168585975748</v>
+        <v>310.2168585975749</v>
       </c>
       <c r="H32" t="n">
-        <v>222.1594952593533</v>
+        <v>222.1594952593534</v>
       </c>
       <c r="I32" t="n">
-        <v>46.57653758629986</v>
+        <v>46.57653758629989</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.41020702090991</v>
+        <v>70.41020702090997</v>
       </c>
       <c r="T32" t="n">
         <v>118.3398427244305</v>
       </c>
       <c r="U32" t="n">
-        <v>151.1686396720951</v>
+        <v>151.1686396720952</v>
       </c>
       <c r="V32" t="n">
-        <v>232.4901811408132</v>
+        <v>232.4901811408133</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7902806187701</v>
+        <v>257.7902806187702</v>
       </c>
       <c r="X32" t="n">
-        <v>277.0905388515167</v>
+        <v>277.0905388515168</v>
       </c>
       <c r="Y32" t="n">
         <v>288.4871366477155</v>
@@ -3126,7 +3126,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I33" t="n">
-        <v>56.52047122575468</v>
+        <v>56.52047122575467</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>39.02901935393508</v>
       </c>
       <c r="S33" t="n">
-        <v>145.2410726443114</v>
+        <v>145.2410726443113</v>
       </c>
       <c r="T33" t="n">
         <v>185.4896446502776</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.60051477533118</v>
+        <v>80.60051477533123</v>
       </c>
       <c r="C34" t="n">
-        <v>66.80050962073166</v>
+        <v>66.80050962073172</v>
       </c>
       <c r="D34" t="n">
-        <v>50.42187401831005</v>
+        <v>50.42187401831011</v>
       </c>
       <c r="E34" t="n">
-        <v>49.3696238740895</v>
+        <v>49.36962387408956</v>
       </c>
       <c r="F34" t="n">
-        <v>49.83654820227581</v>
+        <v>49.83654820227586</v>
       </c>
       <c r="G34" t="n">
-        <v>65.83906677878821</v>
+        <v>65.83906677878825</v>
       </c>
       <c r="H34" t="n">
-        <v>54.23965405859533</v>
+        <v>54.23965405859538</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45639417554673</v>
+        <v>33.45639417554678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66887443723268</v>
+        <v>34.66887443723273</v>
       </c>
       <c r="S34" t="n">
         <v>105.7099374240578</v>
       </c>
       <c r="T34" t="n">
-        <v>128.5648948114307</v>
+        <v>128.5648948114308</v>
       </c>
       <c r="U34" t="n">
-        <v>183.1841904856861</v>
+        <v>183.1841904856862</v>
       </c>
       <c r="V34" t="n">
         <v>157.0086511749568</v>
       </c>
       <c r="W34" t="n">
-        <v>182.17553724557</v>
+        <v>182.1755372455701</v>
       </c>
       <c r="X34" t="n">
-        <v>127.8206392413731</v>
+        <v>127.8206392413732</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.6955069974408</v>
+        <v>118.6955069974409</v>
       </c>
     </row>
     <row r="35">
@@ -3357,10 +3357,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>127.1165548494722</v>
+        <v>89.81692094326287</v>
       </c>
       <c r="H36" t="n">
-        <v>19.47429228221044</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I36" t="n">
         <v>56.52047122575467</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.02901935393508</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>145.2410726443113</v>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I37" t="n">
-        <v>134.5756943977516</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>40.21324716010341</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.73664241684797</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>35.29973040314782</v>
       </c>
       <c r="T37" t="n">
-        <v>58.15468779052083</v>
+        <v>132.3213174844235</v>
       </c>
       <c r="U37" t="n">
         <v>112.7739834647762</v>
@@ -3597,10 +3597,10 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H39" t="n">
-        <v>19.47429228221219</v>
+        <v>75.99476350796509</v>
       </c>
       <c r="I39" t="n">
-        <v>56.52047122575468</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>39.02901935393508</v>
       </c>
       <c r="S39" t="n">
-        <v>145.2410726443114</v>
+        <v>145.2410726443113</v>
       </c>
       <c r="T39" t="n">
         <v>185.4896446502776</v>
@@ -3712,7 +3712,7 @@
         <v>206.8292376462626</v>
       </c>
       <c r="T40" t="n">
-        <v>116.1507645221086</v>
+        <v>116.1507645221088</v>
       </c>
       <c r="U40" t="n">
         <v>112.7739834647762</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>218.5735968797242</v>
+        <v>218.5735968797243</v>
       </c>
       <c r="C41" t="n">
-        <v>206.5849138374059</v>
+        <v>206.584913837406</v>
       </c>
       <c r="D41" t="n">
-        <v>197.5662178819339</v>
+        <v>197.566217881934</v>
       </c>
       <c r="E41" t="n">
-        <v>219.3083554518394</v>
+        <v>219.3083554518396</v>
       </c>
       <c r="F41" t="n">
-        <v>238.4801715398166</v>
+        <v>238.4801715398167</v>
       </c>
       <c r="G41" t="n">
-        <v>239.8066515766649</v>
+        <v>239.806651576665</v>
       </c>
       <c r="H41" t="n">
-        <v>151.7492882384434</v>
+        <v>151.7492882384435</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>47.92963570352058</v>
+        <v>47.92963570352069</v>
       </c>
       <c r="U41" t="n">
-        <v>80.75843265118522</v>
+        <v>80.75843265118532</v>
       </c>
       <c r="V41" t="n">
-        <v>162.0799741199033</v>
+        <v>162.0799741199034</v>
       </c>
       <c r="W41" t="n">
-        <v>187.3800735978602</v>
+        <v>187.3800735978603</v>
       </c>
       <c r="X41" t="n">
-        <v>206.6803318306068</v>
+        <v>206.6803318306069</v>
       </c>
       <c r="Y41" t="n">
-        <v>218.0769296268056</v>
+        <v>218.0769296268057</v>
       </c>
     </row>
     <row r="42">
@@ -3831,13 +3831,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>50.78790158932885</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H42" t="n">
         <v>95.80294554235505</v>
       </c>
       <c r="I42" t="n">
-        <v>56.52047122575468</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>39.02901935393508</v>
       </c>
       <c r="S42" t="n">
-        <v>145.2410726443114</v>
+        <v>145.2410726443113</v>
       </c>
       <c r="T42" t="n">
         <v>185.4896446502776</v>
       </c>
       <c r="U42" t="n">
-        <v>216.28848525876</v>
+        <v>196.4803032243726</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.19030775442127</v>
+        <v>10.19030775442138</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>42.63581932673215</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>61.60577413176579</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>15.3602574048548</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>35.29973040314785</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T43" t="n">
-        <v>58.15468779052086</v>
+        <v>58.15468779052097</v>
       </c>
       <c r="U43" t="n">
-        <v>112.7739834647763</v>
+        <v>112.7739834647764</v>
       </c>
       <c r="V43" t="n">
-        <v>86.59844415404686</v>
+        <v>86.59844415404697</v>
       </c>
       <c r="W43" t="n">
-        <v>111.7653302246601</v>
+        <v>111.7653302246602</v>
       </c>
       <c r="X43" t="n">
-        <v>57.41043222046324</v>
+        <v>57.41043222046335</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.28529997653092</v>
+        <v>48.28529997653104</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>218.5735968797242</v>
+        <v>218.5735968797243</v>
       </c>
       <c r="C44" t="n">
-        <v>206.5849138374059</v>
+        <v>206.584913837406</v>
       </c>
       <c r="D44" t="n">
-        <v>197.5662178819339</v>
+        <v>197.566217881934</v>
       </c>
       <c r="E44" t="n">
-        <v>219.3083554518394</v>
+        <v>219.3083554518396</v>
       </c>
       <c r="F44" t="n">
-        <v>238.4801715398166</v>
+        <v>238.4801715398167</v>
       </c>
       <c r="G44" t="n">
-        <v>239.8066515766649</v>
+        <v>239.806651576665</v>
       </c>
       <c r="H44" t="n">
-        <v>151.7492882384434</v>
+        <v>151.7492882384435</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="T44" t="n">
-        <v>47.92963570352058</v>
+        <v>47.92963570352069</v>
       </c>
       <c r="U44" t="n">
-        <v>80.75843265118522</v>
+        <v>80.75843265118533</v>
       </c>
       <c r="V44" t="n">
-        <v>162.0799741199033</v>
+        <v>162.0799741199034</v>
       </c>
       <c r="W44" t="n">
-        <v>187.3800735978602</v>
+        <v>187.3800735978603</v>
       </c>
       <c r="X44" t="n">
-        <v>206.6803318306068</v>
+        <v>206.6803318306069</v>
       </c>
       <c r="Y44" t="n">
-        <v>218.0769296268056</v>
+        <v>218.0769296268057</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H45" t="n">
-        <v>95.80294554235505</v>
+        <v>75.99476350796731</v>
       </c>
       <c r="I45" t="n">
-        <v>56.52047122575468</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.02901935393511</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S45" t="n">
-        <v>145.2410726443114</v>
+        <v>145.2410726443113</v>
       </c>
       <c r="T45" t="n">
-        <v>109.1609913901346</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U45" t="n">
         <v>216.28848525876</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.19030775442127</v>
+        <v>10.19030775442138</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>35.29973040314785</v>
+        <v>96.90550453491302</v>
       </c>
       <c r="T46" t="n">
-        <v>58.15468779052086</v>
+        <v>58.15468779052097</v>
       </c>
       <c r="U46" t="n">
-        <v>170.7700601963636</v>
+        <v>112.7739834647764</v>
       </c>
       <c r="V46" t="n">
-        <v>86.59844415404686</v>
+        <v>86.59844415404697</v>
       </c>
       <c r="W46" t="n">
-        <v>111.7653302246601</v>
+        <v>111.7653302246602</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>57.41043222046335</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.28529997653092</v>
+        <v>48.28529997653104</v>
       </c>
     </row>
   </sheetData>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>957.0045187663411</v>
+        <v>693.3535843431948</v>
       </c>
       <c r="C11" t="n">
-        <v>957.0045187663411</v>
+        <v>693.3535843431948</v>
       </c>
       <c r="D11" t="n">
-        <v>734.6808102602482</v>
+        <v>471.0298758371022</v>
       </c>
       <c r="E11" t="n">
-        <v>734.6808102602482</v>
+        <v>471.0298758371022</v>
       </c>
       <c r="F11" t="n">
-        <v>471.0298758371021</v>
+        <v>471.0298758371022</v>
       </c>
       <c r="G11" t="n">
         <v>206.0390625888568</v>
@@ -5039,19 +5039,19 @@
         <v>29.99508099538055</v>
       </c>
       <c r="J11" t="n">
-        <v>152.9789828377825</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K11" t="n">
-        <v>469.5331892888868</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="L11" t="n">
-        <v>840.7223166067211</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="M11" t="n">
-        <v>1025.909615366597</v>
+        <v>283.5313607309282</v>
       </c>
       <c r="N11" t="n">
-        <v>1025.909615366597</v>
+        <v>654.7204880487625</v>
       </c>
       <c r="O11" t="n">
         <v>1025.909615366597</v>
@@ -5075,16 +5075,16 @@
         <v>1301.480485150846</v>
       </c>
       <c r="V11" t="n">
-        <v>1301.480485150846</v>
+        <v>1148.429857376389</v>
       </c>
       <c r="W11" t="n">
-        <v>1200.547802017677</v>
+        <v>936.3951835006732</v>
       </c>
       <c r="X11" t="n">
-        <v>1200.547802017677</v>
+        <v>936.3951835006732</v>
       </c>
       <c r="Y11" t="n">
-        <v>1200.547802017677</v>
+        <v>693.3535843431948</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>443.1314930016682</v>
+        <v>529.6411772197318</v>
       </c>
       <c r="C12" t="n">
-        <v>431.9280765093064</v>
+        <v>507.6469110749428</v>
       </c>
       <c r="D12" t="n">
-        <v>293.0894394995185</v>
+        <v>368.8082740651548</v>
       </c>
       <c r="E12" t="n">
-        <v>293.0894394995185</v>
+        <v>221.7802641220261</v>
       </c>
       <c r="F12" t="n">
-        <v>158.3956414493929</v>
+        <v>87.08646607190042</v>
       </c>
       <c r="G12" t="n">
-        <v>29.99508099538055</v>
+        <v>87.08646607190042</v>
       </c>
       <c r="H12" t="n">
-        <v>29.99508099538055</v>
+        <v>87.08646607190042</v>
       </c>
       <c r="I12" t="n">
         <v>29.99508099538055</v>
@@ -5121,49 +5121,49 @@
         <v>29.99508099538055</v>
       </c>
       <c r="K12" t="n">
-        <v>311.3868694948438</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="L12" t="n">
-        <v>566.2933322920182</v>
+        <v>401.1842083132149</v>
       </c>
       <c r="M12" t="n">
-        <v>566.2933322920182</v>
+        <v>401.1842083132149</v>
       </c>
       <c r="N12" t="n">
-        <v>566.2933322920182</v>
+        <v>765.0931167555232</v>
       </c>
       <c r="O12" t="n">
-        <v>937.4824596098526</v>
+        <v>1136.282244073358</v>
       </c>
       <c r="P12" t="n">
-        <v>1300.954265305523</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="Q12" t="n">
         <v>1499.754049769028</v>
       </c>
       <c r="R12" t="n">
-        <v>1460.330797896366</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S12" t="n">
-        <v>1460.330797896366</v>
+        <v>1353.045895582855</v>
       </c>
       <c r="T12" t="n">
-        <v>1272.967520471843</v>
+        <v>1316.182874425015</v>
       </c>
       <c r="U12" t="n">
-        <v>1054.494303038752</v>
+        <v>1248.209913258608</v>
       </c>
       <c r="V12" t="n">
-        <v>976.5989367537699</v>
+        <v>1019.814290706942</v>
       </c>
       <c r="W12" t="n">
-        <v>842.4889939888722</v>
+        <v>778.4984219402521</v>
       </c>
       <c r="X12" t="n">
-        <v>644.5720058666667</v>
+        <v>580.5814338180467</v>
       </c>
       <c r="Y12" t="n">
-        <v>452.0506795162456</v>
+        <v>538.5603637343091</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.74412711853145</v>
+        <v>79.74412711853077</v>
       </c>
       <c r="C13" t="n">
-        <v>60.62841384689528</v>
+        <v>60.62841384689467</v>
       </c>
       <c r="D13" t="n">
-        <v>58.05677694134156</v>
+        <v>58.056776941341</v>
       </c>
       <c r="E13" t="n">
-        <v>56.54801896934395</v>
+        <v>56.54801896934345</v>
       </c>
       <c r="F13" t="n">
-        <v>54.56762026180461</v>
+        <v>54.56762026180417</v>
       </c>
       <c r="G13" t="n">
-        <v>36.42306137596992</v>
+        <v>36.42306137596953</v>
       </c>
       <c r="H13" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538022</v>
       </c>
       <c r="I13" t="n">
         <v>29.99508099538055</v>
@@ -5200,7 +5200,7 @@
         <v>29.99508099538055</v>
       </c>
       <c r="K13" t="n">
-        <v>94.90588907899624</v>
+        <v>94.90588907899627</v>
       </c>
       <c r="L13" t="n">
         <v>235.5746640210048</v>
@@ -5209,40 +5209,40 @@
         <v>395.8076110331839</v>
       </c>
       <c r="N13" t="n">
-        <v>555.4650341729189</v>
+        <v>555.465034172919</v>
       </c>
       <c r="O13" t="n">
-        <v>692.0159524237213</v>
+        <v>692.0159524237215</v>
       </c>
       <c r="P13" t="n">
-        <v>787.5746769178753</v>
+        <v>787.5746769178755</v>
       </c>
       <c r="Q13" t="n">
-        <v>787.5746769178753</v>
+        <v>787.5746769178755</v>
       </c>
       <c r="R13" t="n">
-        <v>787.5746769178766</v>
+        <v>787.5746769178755</v>
       </c>
       <c r="S13" t="n">
-        <v>729.1565113196484</v>
+        <v>729.1565113196474</v>
       </c>
       <c r="T13" t="n">
-        <v>647.6525301786193</v>
+        <v>647.6525301786182</v>
       </c>
       <c r="U13" t="n">
-        <v>510.977543306019</v>
+        <v>510.977543306018</v>
       </c>
       <c r="V13" t="n">
-        <v>400.7424951311251</v>
+        <v>400.7424951311242</v>
       </c>
       <c r="W13" t="n">
-        <v>265.0863499152078</v>
+        <v>265.0863499152069</v>
       </c>
       <c r="X13" t="n">
-        <v>184.3341420772671</v>
+        <v>184.3341420772663</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.7992395362277</v>
+        <v>112.799239536227</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>978.9662738874576</v>
+        <v>954.0069207001118</v>
       </c>
       <c r="C14" t="n">
-        <v>978.9662738874576</v>
+        <v>722.573418299603</v>
       </c>
       <c r="D14" t="n">
-        <v>978.9662738874576</v>
+        <v>500.2497097935102</v>
       </c>
       <c r="E14" t="n">
-        <v>734.6808102602481</v>
+        <v>255.9642461663007</v>
       </c>
       <c r="F14" t="n">
-        <v>471.0298758371021</v>
+        <v>255.9642461663007</v>
       </c>
       <c r="G14" t="n">
-        <v>206.0390625888567</v>
+        <v>206.0390625888568</v>
       </c>
       <c r="H14" t="n">
         <v>29.99508099538055</v>
@@ -5279,16 +5279,16 @@
         <v>152.9789828377825</v>
       </c>
       <c r="K14" t="n">
-        <v>469.5331892888868</v>
+        <v>283.5313607309282</v>
       </c>
       <c r="L14" t="n">
-        <v>840.7223166067211</v>
+        <v>283.5313607309282</v>
       </c>
       <c r="M14" t="n">
-        <v>1025.909615366597</v>
+        <v>654.7204880487625</v>
       </c>
       <c r="N14" t="n">
-        <v>1025.909615366597</v>
+        <v>654.7204880487625</v>
       </c>
       <c r="O14" t="n">
         <v>1025.909615366597</v>
@@ -5303,25 +5303,25 @@
         <v>1499.754049769028</v>
       </c>
       <c r="S14" t="n">
-        <v>1476.992177507313</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T14" t="n">
-        <v>1405.816531807698</v>
+        <v>1428.578404069413</v>
       </c>
       <c r="U14" t="n">
-        <v>1301.480485150846</v>
+        <v>1428.578404069413</v>
       </c>
       <c r="V14" t="n">
-        <v>1115.001467313471</v>
+        <v>1428.578404069413</v>
       </c>
       <c r="W14" t="n">
-        <v>978.9662738874576</v>
+        <v>1428.578404069413</v>
       </c>
       <c r="X14" t="n">
-        <v>978.9662738874576</v>
+        <v>1197.04851985759</v>
       </c>
       <c r="Y14" t="n">
-        <v>978.9662738874576</v>
+        <v>954.0069207001118</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.2898825642621</v>
+        <v>189.217412813703</v>
       </c>
       <c r="C15" t="n">
-        <v>87.08646607190043</v>
+        <v>177.0230909385093</v>
       </c>
       <c r="D15" t="n">
-        <v>87.08646607190043</v>
+        <v>177.0230909385093</v>
       </c>
       <c r="E15" t="n">
-        <v>87.08646607190043</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="F15" t="n">
-        <v>87.08646607190043</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="G15" t="n">
-        <v>87.08646607190043</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="H15" t="n">
-        <v>87.08646607190043</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I15" t="n">
         <v>29.99508099538055</v>
@@ -5364,16 +5364,16 @@
         <v>682.5759968126781</v>
       </c>
       <c r="M15" t="n">
-        <v>937.4824596098526</v>
+        <v>1053.765124130513</v>
       </c>
       <c r="N15" t="n">
-        <v>937.4824596098526</v>
+        <v>1424.954251448347</v>
       </c>
       <c r="O15" t="n">
-        <v>937.4824596098526</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="P15" t="n">
-        <v>1300.954265305523</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="Q15" t="n">
         <v>1499.754049769028</v>
@@ -5400,7 +5400,7 @@
         <v>240.1576694120179</v>
       </c>
       <c r="Y15" t="n">
-        <v>198.1365993282804</v>
+        <v>198.1365993282803</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.74412711853074</v>
+        <v>79.74412711853066</v>
       </c>
       <c r="C16" t="n">
-        <v>60.62841384689466</v>
+        <v>60.62841384689455</v>
       </c>
       <c r="D16" t="n">
-        <v>58.05677694134101</v>
+        <v>58.05677694134087</v>
       </c>
       <c r="E16" t="n">
-        <v>56.54801896934347</v>
+        <v>56.5480189693433</v>
       </c>
       <c r="F16" t="n">
-        <v>54.56762026180422</v>
+        <v>54.56762026180402</v>
       </c>
       <c r="G16" t="n">
-        <v>36.42306137596984</v>
+        <v>36.42306137596985</v>
       </c>
       <c r="H16" t="n">
         <v>29.99508099538055</v>
@@ -5437,7 +5437,7 @@
         <v>29.99508099538055</v>
       </c>
       <c r="K16" t="n">
-        <v>94.90588907899627</v>
+        <v>94.90588907899624</v>
       </c>
       <c r="L16" t="n">
         <v>235.5746640210048</v>
@@ -5452,16 +5452,16 @@
         <v>692.0159524237214</v>
       </c>
       <c r="P16" t="n">
-        <v>787.5746769178754</v>
+        <v>787.5746769178755</v>
       </c>
       <c r="Q16" t="n">
-        <v>787.5746769178754</v>
+        <v>787.5746769178755</v>
       </c>
       <c r="R16" t="n">
-        <v>787.5746769178754</v>
+        <v>787.5746769178755</v>
       </c>
       <c r="S16" t="n">
-        <v>729.1565113196473</v>
+        <v>729.1565113196474</v>
       </c>
       <c r="T16" t="n">
         <v>647.6525301786181</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>855.7565147862558</v>
+        <v>855.7565147862545</v>
       </c>
       <c r="C17" t="n">
-        <v>720.4841740537144</v>
+        <v>720.4841740537129</v>
       </c>
       <c r="D17" t="n">
-        <v>594.3216272155873</v>
+        <v>594.3216272155876</v>
       </c>
       <c r="E17" t="n">
-        <v>446.1973252563454</v>
+        <v>446.1973252563455</v>
       </c>
       <c r="F17" t="n">
         <v>278.7075525011669</v>
       </c>
       <c r="G17" t="n">
-        <v>109.8779009208891</v>
+        <v>109.8779009208893</v>
       </c>
       <c r="H17" t="n">
         <v>29.99508099538055</v>
@@ -5513,19 +5513,19 @@
         <v>29.99508099538055</v>
       </c>
       <c r="J17" t="n">
-        <v>29.99508099538055</v>
+        <v>152.9789828377825</v>
       </c>
       <c r="K17" t="n">
-        <v>346.5492874464848</v>
+        <v>152.9789828377825</v>
       </c>
       <c r="L17" t="n">
-        <v>346.5492874464848</v>
+        <v>152.9789828377825</v>
       </c>
       <c r="M17" t="n">
-        <v>346.5492874464848</v>
+        <v>524.1681101556169</v>
       </c>
       <c r="N17" t="n">
-        <v>654.7204880487625</v>
+        <v>895.3572374734513</v>
       </c>
       <c r="O17" t="n">
         <v>1025.909615366597</v>
@@ -5549,16 +5549,16 @@
         <v>1491.579164780145</v>
       </c>
       <c r="V17" t="n">
-        <v>1401.261308610738</v>
+        <v>1401.261308610737</v>
       </c>
       <c r="W17" t="n">
-        <v>1285.38779640299</v>
+        <v>1285.387796402989</v>
       </c>
       <c r="X17" t="n">
-        <v>1150.019073859135</v>
+        <v>1150.019073859133</v>
       </c>
       <c r="Y17" t="n">
-        <v>1003.138636369624</v>
+        <v>1003.138636369623</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>221.7802641220261</v>
+        <v>360.618901131814</v>
       </c>
       <c r="C18" t="n">
-        <v>221.7802641220261</v>
+        <v>360.618901131814</v>
       </c>
       <c r="D18" t="n">
         <v>221.7802641220261</v>
@@ -5580,13 +5580,13 @@
         <v>221.7802641220261</v>
       </c>
       <c r="F18" t="n">
-        <v>87.08646607190043</v>
+        <v>87.08646607190042</v>
       </c>
       <c r="G18" t="n">
-        <v>87.08646607190043</v>
+        <v>87.08646607190042</v>
       </c>
       <c r="H18" t="n">
-        <v>87.08646607190043</v>
+        <v>87.08646607190042</v>
       </c>
       <c r="I18" t="n">
         <v>29.99508099538055</v>
@@ -5601,43 +5601,43 @@
         <v>773.1966730295694</v>
       </c>
       <c r="M18" t="n">
-        <v>1144.385800347404</v>
+        <v>773.1966730295694</v>
       </c>
       <c r="N18" t="n">
-        <v>1499.754049769028</v>
+        <v>773.1966730295694</v>
       </c>
       <c r="O18" t="n">
-        <v>1499.754049769028</v>
+        <v>937.4824596098525</v>
       </c>
       <c r="P18" t="n">
-        <v>1499.754049769028</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q18" t="n">
         <v>1499.754049769028</v>
       </c>
       <c r="R18" t="n">
-        <v>1499.754049769028</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="S18" t="n">
-        <v>1353.045895582855</v>
+        <v>1313.622643710193</v>
       </c>
       <c r="T18" t="n">
-        <v>1300.4032873461</v>
+        <v>1246.720598005466</v>
       </c>
       <c r="U18" t="n">
-        <v>1081.930069913009</v>
+        <v>1028.247380572376</v>
       </c>
       <c r="V18" t="n">
-        <v>853.5344473613427</v>
+        <v>799.8517580207094</v>
       </c>
       <c r="W18" t="n">
-        <v>612.2185785946527</v>
+        <v>558.5358892540195</v>
       </c>
       <c r="X18" t="n">
-        <v>414.3015904724473</v>
+        <v>360.618901131814</v>
       </c>
       <c r="Y18" t="n">
-        <v>221.7802641220261</v>
+        <v>360.618901131814</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>376.1670707177028</v>
+        <v>184.6537342690092</v>
       </c>
       <c r="C19" t="n">
-        <v>376.1670707177028</v>
+        <v>184.6537342690092</v>
       </c>
       <c r="D19" t="n">
-        <v>223.0951775454655</v>
+        <v>184.6537342690092</v>
       </c>
       <c r="E19" t="n">
-        <v>223.0951775454655</v>
+        <v>184.6537342690092</v>
       </c>
       <c r="F19" t="n">
-        <v>70.61452257124259</v>
+        <v>184.6537342690092</v>
       </c>
       <c r="G19" t="n">
         <v>70.61452257124259</v>
@@ -5674,7 +5674,7 @@
         <v>29.99508099538055</v>
       </c>
       <c r="K19" t="n">
-        <v>94.90588907899624</v>
+        <v>94.90588907899627</v>
       </c>
       <c r="L19" t="n">
         <v>235.5746640210048</v>
@@ -5683,40 +5683,40 @@
         <v>395.8076110331839</v>
       </c>
       <c r="N19" t="n">
-        <v>555.4650341729189</v>
+        <v>555.465034172919</v>
       </c>
       <c r="O19" t="n">
-        <v>692.0159524237213</v>
+        <v>692.0159524237215</v>
       </c>
       <c r="P19" t="n">
-        <v>787.5746769178753</v>
+        <v>787.5746769178755</v>
       </c>
       <c r="Q19" t="n">
-        <v>772.0592653978199</v>
+        <v>772.0592653978202</v>
       </c>
       <c r="R19" t="n">
-        <v>772.0592653978199</v>
+        <v>772.0592653978202</v>
       </c>
       <c r="S19" t="n">
-        <v>772.0592653978199</v>
+        <v>772.0592653978202</v>
       </c>
       <c r="T19" t="n">
-        <v>772.0592653978199</v>
+        <v>772.0592653978202</v>
       </c>
       <c r="U19" t="n">
-        <v>660.9884048772029</v>
+        <v>731.5454401931875</v>
       </c>
       <c r="V19" t="n">
-        <v>646.9145183702767</v>
+        <v>470.8101357516101</v>
       </c>
       <c r="W19" t="n">
-        <v>607.419534822327</v>
+        <v>184.6537342690092</v>
       </c>
       <c r="X19" t="n">
-        <v>376.1670707177028</v>
+        <v>184.6537342690092</v>
       </c>
       <c r="Y19" t="n">
-        <v>376.1670707177028</v>
+        <v>184.6537342690092</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>855.7565147862542</v>
+        <v>855.7565147862545</v>
       </c>
       <c r="C20" t="n">
-        <v>720.4841740537128</v>
+        <v>720.4841740537129</v>
       </c>
       <c r="D20" t="n">
-        <v>594.3216272155876</v>
+        <v>594.3216272155877</v>
       </c>
       <c r="E20" t="n">
         <v>446.1973252563456</v>
@@ -5741,7 +5741,7 @@
         <v>278.7075525011672</v>
       </c>
       <c r="G20" t="n">
-        <v>109.8779009208891</v>
+        <v>109.8779009208892</v>
       </c>
       <c r="H20" t="n">
         <v>29.99508099538055</v>
@@ -5756,19 +5756,19 @@
         <v>469.5331892888868</v>
       </c>
       <c r="L20" t="n">
-        <v>840.7223166067211</v>
+        <v>654.7204880487625</v>
       </c>
       <c r="M20" t="n">
-        <v>1211.911443924555</v>
+        <v>654.7204880487625</v>
       </c>
       <c r="N20" t="n">
-        <v>1499.754049769028</v>
+        <v>654.7204880487625</v>
       </c>
       <c r="O20" t="n">
-        <v>1499.754049769028</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P20" t="n">
-        <v>1499.754049769028</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q20" t="n">
         <v>1499.754049769028</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>473.4205617476803</v>
+        <v>601.8211222016926</v>
       </c>
       <c r="C21" t="n">
-        <v>311.716888988635</v>
+        <v>440.1174494426473</v>
       </c>
       <c r="D21" t="n">
-        <v>311.716888988635</v>
+        <v>440.1174494426473</v>
       </c>
       <c r="E21" t="n">
-        <v>164.6888790455062</v>
+        <v>293.0894394995185</v>
       </c>
       <c r="F21" t="n">
-        <v>29.99508099538055</v>
+        <v>158.3956414493929</v>
       </c>
       <c r="G21" t="n">
         <v>29.99508099538055</v>
@@ -5832,16 +5832,16 @@
         <v>120.6157572122717</v>
       </c>
       <c r="K21" t="n">
-        <v>120.6157572122717</v>
+        <v>402.007545711735</v>
       </c>
       <c r="L21" t="n">
-        <v>491.8048845301061</v>
+        <v>402.007545711735</v>
       </c>
       <c r="M21" t="n">
-        <v>862.9940118479403</v>
+        <v>773.1966730295694</v>
       </c>
       <c r="N21" t="n">
-        <v>1234.183139165775</v>
+        <v>929.7651379876881</v>
       </c>
       <c r="O21" t="n">
         <v>1300.954265305523</v>
@@ -5853,28 +5853,28 @@
         <v>1499.754049769028</v>
       </c>
       <c r="R21" t="n">
-        <v>1460.330797896366</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S21" t="n">
-        <v>1460.330797896366</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T21" t="n">
-        <v>1460.330797896366</v>
+        <v>1406.026393089916</v>
       </c>
       <c r="U21" t="n">
-        <v>1460.330797896366</v>
+        <v>1187.553175656825</v>
       </c>
       <c r="V21" t="n">
-        <v>1264.594187768258</v>
+        <v>959.1575531051589</v>
       </c>
       <c r="W21" t="n">
-        <v>1023.278319001568</v>
+        <v>959.1575531051589</v>
       </c>
       <c r="X21" t="n">
-        <v>825.3613308793623</v>
+        <v>761.2405649829534</v>
       </c>
       <c r="Y21" t="n">
-        <v>632.8400045289411</v>
+        <v>761.2405649829534</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>240.2304921095623</v>
+        <v>227.5427592185155</v>
       </c>
       <c r="C22" t="n">
-        <v>70.61452257124259</v>
+        <v>227.5427592185155</v>
       </c>
       <c r="D22" t="n">
-        <v>70.61452257124259</v>
+        <v>227.5427592185155</v>
       </c>
       <c r="E22" t="n">
-        <v>70.61452257124259</v>
+        <v>227.5427592185155</v>
       </c>
       <c r="F22" t="n">
-        <v>70.61452257124259</v>
+        <v>227.5427592185155</v>
       </c>
       <c r="G22" t="n">
-        <v>70.61452257124259</v>
+        <v>227.5427592185155</v>
       </c>
       <c r="H22" t="n">
         <v>70.61452257124259</v>
@@ -5911,7 +5911,7 @@
         <v>29.99508099538055</v>
       </c>
       <c r="K22" t="n">
-        <v>94.90588907899624</v>
+        <v>94.90588907899627</v>
       </c>
       <c r="L22" t="n">
         <v>235.5746640210048</v>
@@ -5920,40 +5920,40 @@
         <v>395.8076110331839</v>
       </c>
       <c r="N22" t="n">
-        <v>555.4650341729189</v>
+        <v>555.465034172919</v>
       </c>
       <c r="O22" t="n">
-        <v>692.0159524237213</v>
+        <v>692.0159524237215</v>
       </c>
       <c r="P22" t="n">
-        <v>787.5746769178753</v>
+        <v>787.5746769178755</v>
       </c>
       <c r="Q22" t="n">
-        <v>787.5746769178753</v>
+        <v>772.0592653978202</v>
       </c>
       <c r="R22" t="n">
-        <v>739.9037148611736</v>
+        <v>772.0592653978202</v>
       </c>
       <c r="S22" t="n">
-        <v>739.9037148611736</v>
+        <v>563.1408435329085</v>
       </c>
       <c r="T22" t="n">
-        <v>739.9037148611736</v>
+        <v>563.1408435329085</v>
       </c>
       <c r="U22" t="n">
-        <v>699.389889656541</v>
+        <v>522.6270183282759</v>
       </c>
       <c r="V22" t="n">
-        <v>685.3160031496147</v>
+        <v>508.5531318213497</v>
       </c>
       <c r="W22" t="n">
-        <v>645.8210196016651</v>
+        <v>458.7952233231397</v>
       </c>
       <c r="X22" t="n">
-        <v>645.8210196016651</v>
+        <v>227.5427592185155</v>
       </c>
       <c r="Y22" t="n">
-        <v>423.7858607939421</v>
+        <v>227.5427592185155</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>855.756514786254</v>
+        <v>855.7565147862545</v>
       </c>
       <c r="C23" t="n">
-        <v>720.4841740537125</v>
+        <v>720.4841740537129</v>
       </c>
       <c r="D23" t="n">
-        <v>594.3216272155873</v>
+        <v>594.3216272155876</v>
       </c>
       <c r="E23" t="n">
-        <v>446.1973252563454</v>
+        <v>446.1973252563456</v>
       </c>
       <c r="F23" t="n">
-        <v>278.7075525011669</v>
+        <v>278.7075525011671</v>
       </c>
       <c r="G23" t="n">
-        <v>109.8779009208891</v>
+        <v>109.8779009208892</v>
       </c>
       <c r="H23" t="n">
         <v>29.99508099538055</v>
@@ -5987,25 +5987,25 @@
         <v>29.99508099538055</v>
       </c>
       <c r="J23" t="n">
-        <v>29.99508099538055</v>
+        <v>152.9789828377825</v>
       </c>
       <c r="K23" t="n">
-        <v>29.99508099538055</v>
+        <v>283.5313607309282</v>
       </c>
       <c r="L23" t="n">
-        <v>29.99508099538055</v>
+        <v>283.5313607309282</v>
       </c>
       <c r="M23" t="n">
-        <v>401.1842083132149</v>
+        <v>654.7204880487625</v>
       </c>
       <c r="N23" t="n">
-        <v>772.3733356310493</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="O23" t="n">
-        <v>1143.562462948884</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P23" t="n">
-        <v>1458.10364371198</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q23" t="n">
         <v>1499.754049769028</v>
@@ -6017,16 +6017,16 @@
         <v>1499.754049769028</v>
       </c>
       <c r="T23" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U23" t="n">
-        <v>1491.579164780143</v>
+        <v>1491.579164780144</v>
       </c>
       <c r="V23" t="n">
-        <v>1401.261308610736</v>
+        <v>1401.261308610737</v>
       </c>
       <c r="W23" t="n">
-        <v>1285.387796402988</v>
+        <v>1285.387796402989</v>
       </c>
       <c r="X23" t="n">
         <v>1150.019073859133</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>87.08646607190043</v>
+        <v>759.8279983008597</v>
       </c>
       <c r="C24" t="n">
-        <v>87.08646607190043</v>
+        <v>598.1243255418144</v>
       </c>
       <c r="D24" t="n">
-        <v>87.08646607190043</v>
+        <v>459.2856885320264</v>
       </c>
       <c r="E24" t="n">
-        <v>87.08646607190043</v>
+        <v>312.2576785888976</v>
       </c>
       <c r="F24" t="n">
-        <v>87.08646607190043</v>
+        <v>312.2576785888976</v>
       </c>
       <c r="G24" t="n">
-        <v>87.08646607190043</v>
+        <v>183.8571181348853</v>
       </c>
       <c r="H24" t="n">
-        <v>87.08646607190043</v>
+        <v>87.08646607190042</v>
       </c>
       <c r="I24" t="n">
         <v>29.99508099538055</v>
@@ -6072,16 +6072,16 @@
         <v>402.007545711735</v>
       </c>
       <c r="L24" t="n">
-        <v>773.1966730295694</v>
+        <v>402.007545711735</v>
       </c>
       <c r="M24" t="n">
-        <v>773.1966730295694</v>
+        <v>402.007545711735</v>
       </c>
       <c r="N24" t="n">
-        <v>773.1966730295694</v>
+        <v>566.2933322920182</v>
       </c>
       <c r="O24" t="n">
-        <v>937.4824596098526</v>
+        <v>937.4824596098525</v>
       </c>
       <c r="P24" t="n">
         <v>1300.954265305523</v>
@@ -6090,28 +6090,28 @@
         <v>1499.754049769028</v>
       </c>
       <c r="R24" t="n">
-        <v>1460.330797896366</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S24" t="n">
-        <v>1313.622643710193</v>
+        <v>1353.045895582855</v>
       </c>
       <c r="T24" t="n">
-        <v>1165.709489295974</v>
+        <v>1165.682618158332</v>
       </c>
       <c r="U24" t="n">
-        <v>947.2362718628831</v>
+        <v>947.209400725241</v>
       </c>
       <c r="V24" t="n">
-        <v>718.840649311217</v>
+        <v>759.8279983008597</v>
       </c>
       <c r="W24" t="n">
-        <v>477.5247805445271</v>
+        <v>759.8279983008597</v>
       </c>
       <c r="X24" t="n">
-        <v>279.6077924223216</v>
+        <v>759.8279983008597</v>
       </c>
       <c r="Y24" t="n">
-        <v>87.08646607190043</v>
+        <v>759.8279983008597</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>392.2395063482435</v>
+        <v>183.0669741676178</v>
       </c>
       <c r="C25" t="n">
-        <v>222.6235368099238</v>
+        <v>183.0669741676178</v>
       </c>
       <c r="D25" t="n">
-        <v>222.6235368099238</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="E25" t="n">
-        <v>70.61452257124259</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="F25" t="n">
-        <v>70.61452257124259</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="G25" t="n">
-        <v>70.61452257124259</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="H25" t="n">
-        <v>70.61452257124259</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I25" t="n">
-        <v>70.61452257124259</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J25" t="n">
         <v>29.99508099538055</v>
       </c>
       <c r="K25" t="n">
-        <v>94.90588907899624</v>
+        <v>94.90588907899627</v>
       </c>
       <c r="L25" t="n">
         <v>235.5746640210048</v>
@@ -6157,40 +6157,40 @@
         <v>395.8076110331839</v>
       </c>
       <c r="N25" t="n">
-        <v>555.4650341729189</v>
+        <v>555.465034172919</v>
       </c>
       <c r="O25" t="n">
-        <v>692.0159524237213</v>
+        <v>692.0159524237215</v>
       </c>
       <c r="P25" t="n">
-        <v>787.5746769178753</v>
+        <v>787.5746769178755</v>
       </c>
       <c r="Q25" t="n">
-        <v>772.0592653978199</v>
+        <v>772.0592653978202</v>
       </c>
       <c r="R25" t="n">
-        <v>772.0592653978199</v>
+        <v>772.0592653978202</v>
       </c>
       <c r="S25" t="n">
-        <v>772.0592653978199</v>
+        <v>772.0592653978202</v>
       </c>
       <c r="T25" t="n">
-        <v>772.0592653978199</v>
+        <v>755.0635514664018</v>
       </c>
       <c r="U25" t="n">
-        <v>731.5454401931872</v>
+        <v>714.5497262617691</v>
       </c>
       <c r="V25" t="n">
-        <v>717.471553686261</v>
+        <v>453.8144218201918</v>
       </c>
       <c r="W25" t="n">
-        <v>614.2746651559664</v>
+        <v>414.3194382722421</v>
       </c>
       <c r="X25" t="n">
-        <v>614.2746651559664</v>
+        <v>183.0669741676178</v>
       </c>
       <c r="Y25" t="n">
-        <v>392.2395063482435</v>
+        <v>183.0669741676178</v>
       </c>
     </row>
     <row r="26">
@@ -6200,58 +6200,58 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1810.171707740055</v>
+        <v>1810.171707740056</v>
       </c>
       <c r="C26" t="n">
-        <v>1530.378656368019</v>
+        <v>1530.37865636802</v>
       </c>
       <c r="D26" t="n">
-        <v>1259.695398890399</v>
+        <v>1259.6953988904</v>
       </c>
       <c r="E26" t="n">
-        <v>967.0503862916624</v>
+        <v>967.0503862916628</v>
       </c>
       <c r="F26" t="n">
-        <v>655.0399028969891</v>
+        <v>655.0399028969895</v>
       </c>
       <c r="G26" t="n">
-        <v>341.6895406772161</v>
+        <v>341.6895406772169</v>
       </c>
       <c r="H26" t="n">
         <v>117.2860101122128</v>
       </c>
       <c r="I26" t="n">
-        <v>70.23900244928363</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J26" t="n">
-        <v>193.2229042916856</v>
+        <v>293.3310115116684</v>
       </c>
       <c r="K26" t="n">
-        <v>609.8852179627727</v>
+        <v>655.4143521458701</v>
       </c>
       <c r="L26" t="n">
-        <v>1152.676816822191</v>
+        <v>1198.205951005288</v>
       </c>
       <c r="M26" t="n">
-        <v>1696.926289792196</v>
+        <v>1797.03439701218</v>
       </c>
       <c r="N26" t="n">
-        <v>2282.553723882483</v>
+        <v>2282.553723882484</v>
       </c>
       <c r="O26" t="n">
-        <v>2788.88097443719</v>
+        <v>2788.880974437191</v>
       </c>
       <c r="P26" t="n">
-        <v>3203.530262420269</v>
+        <v>3203.53026242027</v>
       </c>
       <c r="Q26" t="n">
-        <v>3462.941623279586</v>
+        <v>3462.941623279587</v>
       </c>
       <c r="R26" t="n">
-        <v>3511.950122464182</v>
+        <v>3511.950122464183</v>
       </c>
       <c r="S26" t="n">
-        <v>3440.828701230939</v>
+        <v>3440.82870123094</v>
       </c>
       <c r="T26" t="n">
         <v>3321.293506559798</v>
@@ -6269,7 +6269,7 @@
         <v>2393.475688091924</v>
       </c>
       <c r="Y26" t="n">
-        <v>2102.074539962918</v>
+        <v>2102.074539962919</v>
       </c>
     </row>
     <row r="27">
@@ -6288,10 +6288,10 @@
         <v>634.2234080360552</v>
       </c>
       <c r="E27" t="n">
-        <v>487.1953980929263</v>
+        <v>487.1953980929264</v>
       </c>
       <c r="F27" t="n">
-        <v>352.5016000428007</v>
+        <v>352.5016000428008</v>
       </c>
       <c r="G27" t="n">
         <v>224.1010395887884</v>
@@ -6300,19 +6300,19 @@
         <v>127.3303875258035</v>
       </c>
       <c r="I27" t="n">
-        <v>70.23900244928363</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J27" t="n">
-        <v>160.8596786661748</v>
+        <v>160.8596786661749</v>
       </c>
       <c r="K27" t="n">
-        <v>442.2514671656381</v>
+        <v>160.8596786661749</v>
       </c>
       <c r="L27" t="n">
-        <v>877.8609290664431</v>
+        <v>354.0267141962559</v>
       </c>
       <c r="M27" t="n">
-        <v>1444.333139632157</v>
+        <v>920.4989247619701</v>
       </c>
       <c r="N27" t="n">
         <v>1515.358872157957</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>443.9396799526544</v>
+        <v>443.939679952655</v>
       </c>
       <c r="C28" t="n">
-        <v>376.4644177094912</v>
+        <v>376.4644177094916</v>
       </c>
       <c r="D28" t="n">
-        <v>325.5332318324103</v>
+        <v>325.5332318324107</v>
       </c>
       <c r="E28" t="n">
-        <v>275.6649248888856</v>
+        <v>275.6649248888859</v>
       </c>
       <c r="F28" t="n">
-        <v>225.3249772098192</v>
+        <v>225.3249772098194</v>
       </c>
       <c r="G28" t="n">
-        <v>158.8208693524574</v>
+        <v>158.8208693524575</v>
       </c>
       <c r="H28" t="n">
-        <v>104.0333400003409</v>
+        <v>104.033340000341</v>
       </c>
       <c r="I28" t="n">
-        <v>70.23900244928363</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J28" t="n">
-        <v>130.5359949807641</v>
+        <v>130.5359949807638</v>
       </c>
       <c r="K28" t="n">
-        <v>295.5549102843626</v>
+        <v>295.5549102843622</v>
       </c>
       <c r="L28" t="n">
-        <v>536.3317924463539</v>
+        <v>536.3317924463536</v>
       </c>
       <c r="M28" t="n">
-        <v>796.6728466785158</v>
+        <v>796.6728466785154</v>
       </c>
       <c r="N28" t="n">
-        <v>1056.438377038234</v>
+        <v>1056.438377038233</v>
       </c>
       <c r="O28" t="n">
-        <v>1293.097402509017</v>
+        <v>1293.097402509018</v>
       </c>
       <c r="P28" t="n">
-        <v>1488.764234223154</v>
+        <v>1488.764234223155</v>
       </c>
       <c r="Q28" t="n">
-        <v>1573.66568661233</v>
+        <v>1573.665686612332</v>
       </c>
       <c r="R28" t="n">
-        <v>1538.646621524216</v>
+        <v>1538.646621524218</v>
       </c>
       <c r="S28" t="n">
-        <v>1431.868906954461</v>
+        <v>1431.868906954463</v>
       </c>
       <c r="T28" t="n">
-        <v>1302.005376841905</v>
+        <v>1302.005376841906</v>
       </c>
       <c r="U28" t="n">
-        <v>1116.970840997777</v>
+        <v>1116.970840997779</v>
       </c>
       <c r="V28" t="n">
-        <v>958.3762438513565</v>
+        <v>958.3762438513576</v>
       </c>
       <c r="W28" t="n">
-        <v>774.360549663912</v>
+        <v>774.3605496639127</v>
       </c>
       <c r="X28" t="n">
-        <v>645.2487928544442</v>
+        <v>645.2487928544449</v>
       </c>
       <c r="Y28" t="n">
-        <v>525.3543413418778</v>
+        <v>525.3543413418784</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.171707740054</v>
+        <v>1810.171707740055</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.378656368018</v>
+        <v>1530.378656368019</v>
       </c>
       <c r="D29" t="n">
-        <v>1259.695398890398</v>
+        <v>1259.695398890399</v>
       </c>
       <c r="E29" t="n">
-        <v>967.0503862916614</v>
+        <v>967.0503862916623</v>
       </c>
       <c r="F29" t="n">
-        <v>655.0399028969881</v>
+        <v>655.039902896989</v>
       </c>
       <c r="G29" t="n">
-        <v>341.6895406772155</v>
+        <v>341.6895406772164</v>
       </c>
       <c r="H29" t="n">
         <v>117.2860101122128</v>
       </c>
       <c r="I29" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J29" t="n">
         <v>293.3310115116684</v>
       </c>
       <c r="K29" t="n">
-        <v>709.9933251827556</v>
+        <v>709.9933251827554</v>
       </c>
       <c r="L29" t="n">
-        <v>1252.784924042174</v>
+        <v>1252.784924042173</v>
       </c>
       <c r="M29" t="n">
         <v>1851.613370049065</v>
       </c>
       <c r="N29" t="n">
-        <v>2437.240804139353</v>
+        <v>2437.240804139352</v>
       </c>
       <c r="O29" t="n">
-        <v>2888.989081657173</v>
+        <v>2888.989081657174</v>
       </c>
       <c r="P29" t="n">
         <v>3203.53026242027</v>
@@ -6485,28 +6485,28 @@
         <v>3462.941623279587</v>
       </c>
       <c r="R29" t="n">
-        <v>3511.950122464182</v>
+        <v>3511.950122464183</v>
       </c>
       <c r="S29" t="n">
-        <v>3440.82870123094</v>
+        <v>3440.828701230941</v>
       </c>
       <c r="T29" t="n">
         <v>3321.293506559798</v>
       </c>
       <c r="U29" t="n">
-        <v>3168.597910931418</v>
+        <v>3168.597910931419</v>
       </c>
       <c r="V29" t="n">
-        <v>2933.759344122516</v>
+        <v>2933.759344122517</v>
       </c>
       <c r="W29" t="n">
-        <v>2673.365121275273</v>
+        <v>2673.365121275274</v>
       </c>
       <c r="X29" t="n">
-        <v>2393.475688091923</v>
+        <v>2393.475688091924</v>
       </c>
       <c r="Y29" t="n">
-        <v>2102.074539962917</v>
+        <v>2102.074539962918</v>
       </c>
     </row>
     <row r="30">
@@ -6525,10 +6525,10 @@
         <v>634.2234080360552</v>
       </c>
       <c r="E30" t="n">
-        <v>487.1953980929263</v>
+        <v>487.1953980929264</v>
       </c>
       <c r="F30" t="n">
-        <v>352.5016000428007</v>
+        <v>352.5016000428008</v>
       </c>
       <c r="G30" t="n">
         <v>224.1010395887884</v>
@@ -6537,7 +6537,7 @@
         <v>127.3303875258035</v>
       </c>
       <c r="I30" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J30" t="n">
         <v>160.8596786661749</v>
@@ -6546,13 +6546,13 @@
         <v>442.2514671656381</v>
       </c>
       <c r="L30" t="n">
-        <v>877.8609290664432</v>
+        <v>877.8609290664431</v>
       </c>
       <c r="M30" t="n">
         <v>1444.333139632157</v>
       </c>
       <c r="N30" t="n">
-        <v>1984.031277134405</v>
+        <v>1515.358872157957</v>
       </c>
       <c r="O30" t="n">
         <v>1984.031277134405</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>443.9396799526548</v>
+        <v>443.9396799526549</v>
       </c>
       <c r="C31" t="n">
-        <v>376.4644177094915</v>
+        <v>376.4644177094916</v>
       </c>
       <c r="D31" t="n">
         <v>325.5332318324106</v>
       </c>
       <c r="E31" t="n">
-        <v>275.6649248888858</v>
+        <v>275.6649248888859</v>
       </c>
       <c r="F31" t="n">
-        <v>225.3249772098193</v>
+        <v>225.3249772098194</v>
       </c>
       <c r="G31" t="n">
-        <v>158.8208693524574</v>
+        <v>158.8208693524575</v>
       </c>
       <c r="H31" t="n">
         <v>104.033340000341</v>
       </c>
       <c r="I31" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J31" t="n">
-        <v>130.535994980764</v>
+        <v>130.5359949807641</v>
       </c>
       <c r="K31" t="n">
-        <v>295.5549102843622</v>
+        <v>295.5549102843625</v>
       </c>
       <c r="L31" t="n">
-        <v>536.3317924463536</v>
+        <v>536.3317924463538</v>
       </c>
       <c r="M31" t="n">
         <v>796.6728466785157</v>
@@ -6634,7 +6634,7 @@
         <v>1056.438377038234</v>
       </c>
       <c r="O31" t="n">
-        <v>1293.097402509019</v>
+        <v>1293.097402509018</v>
       </c>
       <c r="P31" t="n">
         <v>1488.764234223155</v>
@@ -6643,7 +6643,7 @@
         <v>1573.665686612331</v>
       </c>
       <c r="R31" t="n">
-        <v>1538.646621524218</v>
+        <v>1538.646621524217</v>
       </c>
       <c r="S31" t="n">
         <v>1431.868906954462</v>
@@ -6655,7 +6655,7 @@
         <v>1116.970840997778</v>
       </c>
       <c r="V31" t="n">
-        <v>958.3762438513573</v>
+        <v>958.3762438513572</v>
       </c>
       <c r="W31" t="n">
         <v>774.3605496639127</v>
@@ -6677,52 +6677,52 @@
         <v>1810.171707740056</v>
       </c>
       <c r="C32" t="n">
-        <v>1530.37865636802</v>
+        <v>1530.378656368019</v>
       </c>
       <c r="D32" t="n">
         <v>1259.695398890399</v>
       </c>
       <c r="E32" t="n">
-        <v>967.0503862916628</v>
+        <v>967.0503862916626</v>
       </c>
       <c r="F32" t="n">
-        <v>655.0399028969896</v>
+        <v>655.0399028969892</v>
       </c>
       <c r="G32" t="n">
-        <v>341.6895406772171</v>
+        <v>341.6895406772167</v>
       </c>
       <c r="H32" t="n">
         <v>117.2860101122128</v>
       </c>
       <c r="I32" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J32" t="n">
-        <v>193.2229042916856</v>
+        <v>238.7520384747826</v>
       </c>
       <c r="K32" t="n">
-        <v>609.8852179627727</v>
+        <v>655.4143521458697</v>
       </c>
       <c r="L32" t="n">
-        <v>1152.676816822191</v>
+        <v>1198.205951005288</v>
       </c>
       <c r="M32" t="n">
-        <v>1696.926289792196</v>
+        <v>1797.034397012179</v>
       </c>
       <c r="N32" t="n">
-        <v>2282.553723882484</v>
+        <v>2382.661831102467</v>
       </c>
       <c r="O32" t="n">
-        <v>2788.88097443719</v>
+        <v>2888.989081657173</v>
       </c>
       <c r="P32" t="n">
-        <v>3203.53026242027</v>
+        <v>3303.638369640253</v>
       </c>
       <c r="Q32" t="n">
         <v>3462.941623279587</v>
       </c>
       <c r="R32" t="n">
-        <v>3511.950122464182</v>
+        <v>3511.950122464183</v>
       </c>
       <c r="S32" t="n">
         <v>3440.82870123094</v>
@@ -6737,7 +6737,7 @@
         <v>2933.759344122517</v>
       </c>
       <c r="W32" t="n">
-        <v>2673.365121275275</v>
+        <v>2673.365121275274</v>
       </c>
       <c r="X32" t="n">
         <v>2393.475688091924</v>
@@ -6774,16 +6774,16 @@
         <v>127.3303875258035</v>
       </c>
       <c r="I33" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J33" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="K33" t="n">
-        <v>117.2170367589562</v>
+        <v>117.217036758956</v>
       </c>
       <c r="L33" t="n">
-        <v>552.8264986597611</v>
+        <v>552.826498659761</v>
       </c>
       <c r="M33" t="n">
         <v>1119.298709225475</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>443.9396799526547</v>
+        <v>443.939679952655</v>
       </c>
       <c r="C34" t="n">
-        <v>376.4644177094914</v>
+        <v>376.4644177094917</v>
       </c>
       <c r="D34" t="n">
-        <v>325.5332318324105</v>
+        <v>325.5332318324108</v>
       </c>
       <c r="E34" t="n">
-        <v>275.6649248888858</v>
+        <v>275.6649248888859</v>
       </c>
       <c r="F34" t="n">
-        <v>225.3249772098193</v>
+        <v>225.3249772098194</v>
       </c>
       <c r="G34" t="n">
         <v>158.8208693524575</v>
@@ -6853,55 +6853,55 @@
         <v>104.033340000341</v>
       </c>
       <c r="I34" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J34" t="n">
-        <v>130.5359949807641</v>
+        <v>130.535994980764</v>
       </c>
       <c r="K34" t="n">
-        <v>295.5549102843626</v>
+        <v>295.5549102843624</v>
       </c>
       <c r="L34" t="n">
-        <v>536.3317924463539</v>
+        <v>536.3317924463538</v>
       </c>
       <c r="M34" t="n">
-        <v>796.6728466785158</v>
+        <v>796.6728466785156</v>
       </c>
       <c r="N34" t="n">
-        <v>1056.438377038234</v>
+        <v>1056.438377038233</v>
       </c>
       <c r="O34" t="n">
-        <v>1293.097402509017</v>
+        <v>1293.097402509018</v>
       </c>
       <c r="P34" t="n">
-        <v>1488.764234223154</v>
+        <v>1488.764234223155</v>
       </c>
       <c r="Q34" t="n">
-        <v>1573.665686612331</v>
+        <v>1573.665686612332</v>
       </c>
       <c r="R34" t="n">
-        <v>1538.646621524217</v>
+        <v>1538.646621524218</v>
       </c>
       <c r="S34" t="n">
-        <v>1431.868906954462</v>
+        <v>1431.868906954463</v>
       </c>
       <c r="T34" t="n">
-        <v>1302.005376841905</v>
+        <v>1302.005376841906</v>
       </c>
       <c r="U34" t="n">
-        <v>1116.970840997778</v>
+        <v>1116.970840997779</v>
       </c>
       <c r="V34" t="n">
-        <v>958.376243851357</v>
+        <v>958.3762438513576</v>
       </c>
       <c r="W34" t="n">
-        <v>774.3605496639125</v>
+        <v>774.360549663913</v>
       </c>
       <c r="X34" t="n">
-        <v>645.2487928544447</v>
+        <v>645.248792854445</v>
       </c>
       <c r="Y34" t="n">
-        <v>525.3543413418781</v>
+        <v>525.3543413418785</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1315.115623597501</v>
+        <v>1315.115623597502</v>
       </c>
       <c r="C35" t="n">
         <v>1106.443993458708</v>
@@ -6938,22 +6938,22 @@
         <v>48.95845336911378</v>
       </c>
       <c r="K35" t="n">
-        <v>140.9359334218859</v>
+        <v>300.2391870612204</v>
       </c>
       <c r="L35" t="n">
-        <v>583.6194250613212</v>
+        <v>742.9226787006558</v>
       </c>
       <c r="M35" t="n">
-        <v>1082.33976384823</v>
+        <v>1241.643017487565</v>
       </c>
       <c r="N35" t="n">
-        <v>1567.859090718534</v>
+        <v>1727.162344357869</v>
       </c>
       <c r="O35" t="n">
-        <v>1974.078234053258</v>
+        <v>2133.381487692593</v>
       </c>
       <c r="P35" t="n">
-        <v>2288.619414816354</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="Q35" t="n">
         <v>2447.922668455689</v>
@@ -6965,7 +6965,7 @@
         <v>2447.922668455689</v>
       </c>
       <c r="T35" t="n">
-        <v>2399.508895017789</v>
+        <v>2399.50889501779</v>
       </c>
       <c r="U35" t="n">
         <v>2317.934720622653</v>
@@ -6980,7 +6980,7 @@
         <v>1756.176761482885</v>
       </c>
       <c r="Y35" t="n">
-        <v>1535.897034587121</v>
+        <v>1535.897034587122</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>836.3855189669966</v>
+        <v>875.8087708396586</v>
       </c>
       <c r="C36" t="n">
-        <v>674.6818462079514</v>
+        <v>714.1050980806133</v>
       </c>
       <c r="D36" t="n">
-        <v>535.8432091981634</v>
+        <v>575.2664610708254</v>
       </c>
       <c r="E36" t="n">
-        <v>388.8151992550347</v>
+        <v>428.2384511276966</v>
       </c>
       <c r="F36" t="n">
-        <v>254.121401204909</v>
+        <v>293.544653077571</v>
       </c>
       <c r="G36" t="n">
-        <v>125.7208407508967</v>
+        <v>202.8204905086185</v>
       </c>
       <c r="H36" t="n">
         <v>106.0498384456336</v>
@@ -7023,7 +7023,7 @@
         <v>856.5803799862733</v>
       </c>
       <c r="M36" t="n">
-        <v>856.5803799862733</v>
+        <v>1416.978673320065</v>
       </c>
       <c r="N36" t="n">
         <v>1416.978673320065</v>
@@ -7038,28 +7038,28 @@
         <v>2447.922668455689</v>
       </c>
       <c r="R36" t="n">
-        <v>2408.499416583027</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="S36" t="n">
-        <v>2261.791262396854</v>
+        <v>2301.214514269516</v>
       </c>
       <c r="T36" t="n">
-        <v>2074.427984972331</v>
+        <v>2113.851236844993</v>
       </c>
       <c r="U36" t="n">
-        <v>1855.95476753924</v>
+        <v>1895.378019411902</v>
       </c>
       <c r="V36" t="n">
-        <v>1627.559144987574</v>
+        <v>1666.982396860236</v>
       </c>
       <c r="W36" t="n">
-        <v>1386.243276220884</v>
+        <v>1425.666528093546</v>
       </c>
       <c r="X36" t="n">
-        <v>1188.326288098679</v>
+        <v>1227.74953997134</v>
       </c>
       <c r="Y36" t="n">
-        <v>995.8049617482576</v>
+        <v>1035.228213620919</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>225.5129397911895</v>
+        <v>205.8866900163867</v>
       </c>
       <c r="C37" t="n">
-        <v>225.5129397911895</v>
+        <v>205.8866900163867</v>
       </c>
       <c r="D37" t="n">
-        <v>225.5129397911895</v>
+        <v>205.8866900163867</v>
       </c>
       <c r="E37" t="n">
-        <v>225.5129397911895</v>
+        <v>205.8866900163867</v>
       </c>
       <c r="F37" t="n">
-        <v>225.5129397911895</v>
+        <v>205.8866900163867</v>
       </c>
       <c r="G37" t="n">
-        <v>225.5129397911895</v>
+        <v>205.8866900163867</v>
       </c>
       <c r="H37" t="n">
-        <v>225.5129397911895</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I37" t="n">
-        <v>89.57789494497581</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J37" t="n">
         <v>48.95845336911378</v>
@@ -7117,28 +7117,28 @@
         <v>806.5380492916087</v>
       </c>
       <c r="R37" t="n">
-        <v>751.2485114968127</v>
+        <v>806.5380492916087</v>
       </c>
       <c r="S37" t="n">
-        <v>715.5922181602998</v>
+        <v>770.8817559550957</v>
       </c>
       <c r="T37" t="n">
-        <v>656.8501092809859</v>
+        <v>637.2238595061831</v>
       </c>
       <c r="U37" t="n">
-        <v>542.9369946701008</v>
+        <v>523.3107448952981</v>
       </c>
       <c r="V37" t="n">
-        <v>455.4638187569223</v>
+        <v>435.8375689821194</v>
       </c>
       <c r="W37" t="n">
-        <v>342.5695458027201</v>
+        <v>322.9432960279173</v>
       </c>
       <c r="X37" t="n">
-        <v>284.5792102264947</v>
+        <v>264.9529604516919</v>
       </c>
       <c r="Y37" t="n">
-        <v>235.8061799471706</v>
+        <v>216.1799301723677</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1315.115623597503</v>
+        <v>1315.115623597502</v>
       </c>
       <c r="C38" t="n">
-        <v>1106.443993458709</v>
+        <v>1106.443993458708</v>
       </c>
       <c r="D38" t="n">
-        <v>906.8821572143315</v>
+        <v>906.8821572143301</v>
       </c>
       <c r="E38" t="n">
-        <v>685.3585658488372</v>
+        <v>685.3585658488357</v>
       </c>
       <c r="F38" t="n">
-        <v>444.4695036874064</v>
+        <v>444.4695036874048</v>
       </c>
       <c r="G38" t="n">
         <v>202.2405627008748</v>
       </c>
       <c r="H38" t="n">
-        <v>48.95845336911381</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I38" t="n">
-        <v>48.95845336911381</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J38" t="n">
         <v>171.9423552115157</v>
@@ -7181,43 +7181,43 @@
         <v>931.1800533020553</v>
       </c>
       <c r="M38" t="n">
-        <v>1429.900392088964</v>
+        <v>1082.33976384823</v>
       </c>
       <c r="N38" t="n">
-        <v>1915.419718959268</v>
+        <v>1567.859090718534</v>
       </c>
       <c r="O38" t="n">
-        <v>2321.638862293992</v>
+        <v>1974.078234053258</v>
       </c>
       <c r="P38" t="n">
-        <v>2447.922668455691</v>
+        <v>2288.619414816354</v>
       </c>
       <c r="Q38" t="n">
-        <v>2447.922668455691</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="R38" t="n">
-        <v>2447.922668455691</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="S38" t="n">
-        <v>2447.922668455691</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="T38" t="n">
-        <v>2399.508895017791</v>
+        <v>2399.508895017789</v>
       </c>
       <c r="U38" t="n">
-        <v>2317.934720622655</v>
+        <v>2317.934720622653</v>
       </c>
       <c r="V38" t="n">
-        <v>2154.217575046995</v>
+        <v>2154.217575046993</v>
       </c>
       <c r="W38" t="n">
-        <v>1964.944773432995</v>
+        <v>1964.944773432993</v>
       </c>
       <c r="X38" t="n">
-        <v>1756.176761482887</v>
+        <v>1756.176761482885</v>
       </c>
       <c r="Y38" t="n">
-        <v>1535.897034587123</v>
+        <v>1535.897034587122</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>836.3855189669985</v>
+        <v>836.3855189669966</v>
       </c>
       <c r="C39" t="n">
-        <v>674.6818462079532</v>
+        <v>674.6818462079514</v>
       </c>
       <c r="D39" t="n">
-        <v>535.8432091981653</v>
+        <v>535.8432091981634</v>
       </c>
       <c r="E39" t="n">
-        <v>388.8151992550365</v>
+        <v>388.8151992550347</v>
       </c>
       <c r="F39" t="n">
-        <v>254.1214012049108</v>
+        <v>254.121401204909</v>
       </c>
       <c r="G39" t="n">
-        <v>125.7208407508985</v>
+        <v>125.7208407508967</v>
       </c>
       <c r="H39" t="n">
-        <v>106.0498384456337</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I39" t="n">
-        <v>48.95845336911381</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J39" t="n">
-        <v>48.95845336911381</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="K39" t="n">
         <v>330.3502418685771</v>
@@ -7263,40 +7263,40 @@
         <v>1332.431914335096</v>
       </c>
       <c r="N39" t="n">
-        <v>1416.978673320067</v>
+        <v>1615.77845778357</v>
       </c>
       <c r="O39" t="n">
-        <v>1885.651078296516</v>
+        <v>2084.450862760019</v>
       </c>
       <c r="P39" t="n">
-        <v>2249.122883992186</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="Q39" t="n">
-        <v>2447.922668455691</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="R39" t="n">
-        <v>2408.499416583029</v>
+        <v>2408.499416583027</v>
       </c>
       <c r="S39" t="n">
-        <v>2261.791262396856</v>
+        <v>2261.791262396854</v>
       </c>
       <c r="T39" t="n">
-        <v>2074.427984972333</v>
+        <v>2074.427984972331</v>
       </c>
       <c r="U39" t="n">
-        <v>1855.954767539242</v>
+        <v>1855.95476753924</v>
       </c>
       <c r="V39" t="n">
-        <v>1627.559144987576</v>
+        <v>1627.559144987574</v>
       </c>
       <c r="W39" t="n">
-        <v>1386.243276220886</v>
+        <v>1386.243276220884</v>
       </c>
       <c r="X39" t="n">
-        <v>1188.326288098681</v>
+        <v>1188.326288098679</v>
       </c>
       <c r="Y39" t="n">
-        <v>995.8049617482594</v>
+        <v>995.8049617482576</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.95845336911381</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="C40" t="n">
-        <v>48.95845336911381</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="D40" t="n">
-        <v>48.95845336911381</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="E40" t="n">
-        <v>48.95845336911381</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="F40" t="n">
-        <v>48.95845336911381</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="G40" t="n">
-        <v>48.95845336911381</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="H40" t="n">
-        <v>48.95845336911381</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I40" t="n">
-        <v>48.95845336911381</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J40" t="n">
-        <v>48.95845336911381</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="K40" t="n">
         <v>113.8692614527295</v>
@@ -7345,19 +7345,19 @@
         <v>574.4284065466521</v>
       </c>
       <c r="O40" t="n">
-        <v>710.9793247974545</v>
+        <v>710.9793247974546</v>
       </c>
       <c r="P40" t="n">
-        <v>806.5380492916086</v>
+        <v>806.5380492916087</v>
       </c>
       <c r="Q40" t="n">
-        <v>806.5380492916086</v>
+        <v>806.5380492916087</v>
       </c>
       <c r="R40" t="n">
-        <v>806.5380492916086</v>
+        <v>806.5380492916087</v>
       </c>
       <c r="S40" t="n">
-        <v>597.6196274266968</v>
+        <v>597.619627426697</v>
       </c>
       <c r="T40" t="n">
         <v>480.2956228589103</v>
@@ -7369,13 +7369,13 @@
         <v>278.9093323348466</v>
       </c>
       <c r="W40" t="n">
-        <v>166.0150593806445</v>
+        <v>166.0150593806444</v>
       </c>
       <c r="X40" t="n">
         <v>108.024723804419</v>
       </c>
       <c r="Y40" t="n">
-        <v>59.25169352509486</v>
+        <v>59.25169352509483</v>
       </c>
     </row>
     <row r="41">
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1315.115623597502</v>
+        <v>1315.115623597503</v>
       </c>
       <c r="C41" t="n">
-        <v>1106.443993458708</v>
+        <v>1106.443993458709</v>
       </c>
       <c r="D41" t="n">
-        <v>906.8821572143306</v>
+        <v>906.8821572143311</v>
       </c>
       <c r="E41" t="n">
         <v>685.3585658488365</v>
       </c>
       <c r="F41" t="n">
-        <v>444.4695036874056</v>
+        <v>444.4695036874055</v>
       </c>
       <c r="G41" t="n">
-        <v>202.2405627008748</v>
+        <v>202.240562700875</v>
       </c>
       <c r="H41" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="I41" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="J41" t="n">
-        <v>140.9359334218875</v>
+        <v>171.9423552115158</v>
       </c>
       <c r="K41" t="n">
-        <v>140.9359334218875</v>
+        <v>488.4965616626201</v>
       </c>
       <c r="L41" t="n">
-        <v>583.6194250613228</v>
+        <v>931.1800533020555</v>
       </c>
       <c r="M41" t="n">
-        <v>1082.339763848232</v>
+        <v>1429.900392088964</v>
       </c>
       <c r="N41" t="n">
-        <v>1567.859090718536</v>
+        <v>1915.419718959269</v>
       </c>
       <c r="O41" t="n">
-        <v>1974.07823405326</v>
+        <v>2321.638862293993</v>
       </c>
       <c r="P41" t="n">
-        <v>2288.619414816356</v>
+        <v>2447.922668455691</v>
       </c>
       <c r="Q41" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455691</v>
       </c>
       <c r="R41" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455691</v>
       </c>
       <c r="S41" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455691</v>
       </c>
       <c r="T41" t="n">
         <v>2399.508895017791</v>
       </c>
       <c r="U41" t="n">
-        <v>2317.934720622654</v>
+        <v>2317.934720622655</v>
       </c>
       <c r="V41" t="n">
-        <v>2154.217575046994</v>
+        <v>2154.217575046995</v>
       </c>
       <c r="W41" t="n">
-        <v>1964.944773432994</v>
+        <v>1964.944773432995</v>
       </c>
       <c r="X41" t="n">
-        <v>1756.176761482886</v>
+        <v>1756.176761482887</v>
       </c>
       <c r="Y41" t="n">
         <v>1535.897034587123</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>836.385518966998</v>
+        <v>856.3937836481986</v>
       </c>
       <c r="C42" t="n">
-        <v>674.6818462079527</v>
+        <v>694.6901108891533</v>
       </c>
       <c r="D42" t="n">
-        <v>535.8432091981648</v>
+        <v>555.8514738793654</v>
       </c>
       <c r="E42" t="n">
-        <v>388.815199255036</v>
+        <v>408.8234639362366</v>
       </c>
       <c r="F42" t="n">
-        <v>254.1214012049104</v>
+        <v>274.129665886111</v>
       </c>
       <c r="G42" t="n">
-        <v>202.8204905086186</v>
+        <v>145.7291054320987</v>
       </c>
       <c r="H42" t="n">
-        <v>106.0498384456337</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="I42" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="J42" t="n">
-        <v>48.9584533691138</v>
+        <v>139.579129586005</v>
       </c>
       <c r="K42" t="n">
-        <v>48.9584533691138</v>
+        <v>420.9709180854683</v>
       </c>
       <c r="L42" t="n">
-        <v>454.4462998218711</v>
+        <v>856.5803799862733</v>
       </c>
       <c r="M42" t="n">
-        <v>1020.918510387585</v>
+        <v>1423.052590551988</v>
       </c>
       <c r="N42" t="n">
-        <v>1615.778457783572</v>
+        <v>1615.778457783573</v>
       </c>
       <c r="O42" t="n">
-        <v>2084.45086276002</v>
+        <v>2084.450862760021</v>
       </c>
       <c r="P42" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455691</v>
       </c>
       <c r="Q42" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455691</v>
       </c>
       <c r="R42" t="n">
         <v>2408.499416583029</v>
       </c>
       <c r="S42" t="n">
-        <v>2261.791262396855</v>
+        <v>2261.791262396856</v>
       </c>
       <c r="T42" t="n">
         <v>2074.427984972333</v>
       </c>
       <c r="U42" t="n">
-        <v>1855.954767539242</v>
+        <v>1875.963032220442</v>
       </c>
       <c r="V42" t="n">
-        <v>1627.559144987576</v>
+        <v>1647.567409668776</v>
       </c>
       <c r="W42" t="n">
-        <v>1386.243276220885</v>
+        <v>1406.251540902086</v>
       </c>
       <c r="X42" t="n">
-        <v>1188.32628809868</v>
+        <v>1208.334552779881</v>
       </c>
       <c r="Y42" t="n">
-        <v>995.804961748259</v>
+        <v>1015.81322642946</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>280.8024775859848</v>
+        <v>92.02493753753014</v>
       </c>
       <c r="C43" t="n">
-        <v>111.1865080476651</v>
+        <v>92.02493753753014</v>
       </c>
       <c r="D43" t="n">
-        <v>111.1865080476651</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="E43" t="n">
-        <v>111.1865080476651</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="F43" t="n">
-        <v>111.1865080476651</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="G43" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="H43" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="I43" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="J43" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="K43" t="n">
         <v>113.8692614527295</v>
       </c>
       <c r="L43" t="n">
-        <v>254.538036394738</v>
+        <v>254.5380363947381</v>
       </c>
       <c r="M43" t="n">
-        <v>414.7709834069171</v>
+        <v>414.7709834069172</v>
       </c>
       <c r="N43" t="n">
-        <v>574.4284065466521</v>
+        <v>574.4284065466522</v>
       </c>
       <c r="O43" t="n">
-        <v>710.9793247974545</v>
+        <v>710.9793247974546</v>
       </c>
       <c r="P43" t="n">
-        <v>806.5380492916086</v>
+        <v>806.5380492916087</v>
       </c>
       <c r="Q43" t="n">
-        <v>806.5380492916086</v>
+        <v>791.0226377715534</v>
       </c>
       <c r="R43" t="n">
-        <v>806.5380492916086</v>
+        <v>791.0226377715534</v>
       </c>
       <c r="S43" t="n">
-        <v>770.8817559550956</v>
+        <v>582.1042159066417</v>
       </c>
       <c r="T43" t="n">
-        <v>712.1396470757816</v>
+        <v>523.3621070273275</v>
       </c>
       <c r="U43" t="n">
-        <v>598.2265324648964</v>
+        <v>409.4489924164423</v>
       </c>
       <c r="V43" t="n">
-        <v>510.7533565517178</v>
+        <v>321.9758165032635</v>
       </c>
       <c r="W43" t="n">
-        <v>397.8590835975156</v>
+        <v>209.0815435490612</v>
       </c>
       <c r="X43" t="n">
-        <v>339.8687480212901</v>
+        <v>151.0912079728356</v>
       </c>
       <c r="Y43" t="n">
-        <v>291.0957177419659</v>
+        <v>102.3181776935113</v>
       </c>
     </row>
     <row r="44">
@@ -7625,64 +7625,64 @@
         <v>1315.115623597502</v>
       </c>
       <c r="C44" t="n">
-        <v>1106.443993458709</v>
+        <v>1106.443993458708</v>
       </c>
       <c r="D44" t="n">
-        <v>906.8821572143313</v>
+        <v>906.8821572143304</v>
       </c>
       <c r="E44" t="n">
-        <v>685.3585658488369</v>
+        <v>685.358565848836</v>
       </c>
       <c r="F44" t="n">
-        <v>444.4695036874059</v>
+        <v>444.4695036874052</v>
       </c>
       <c r="G44" t="n">
-        <v>202.2405627008748</v>
+        <v>202.240562700875</v>
       </c>
       <c r="H44" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="I44" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="J44" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="K44" t="n">
-        <v>365.512659820218</v>
+        <v>365.5126598202182</v>
       </c>
       <c r="L44" t="n">
-        <v>808.1961514596532</v>
+        <v>808.1961514596535</v>
       </c>
       <c r="M44" t="n">
         <v>1306.916490246562</v>
       </c>
       <c r="N44" t="n">
-        <v>1567.859090718536</v>
+        <v>1792.435817116867</v>
       </c>
       <c r="O44" t="n">
-        <v>1974.07823405326</v>
+        <v>2198.65496045159</v>
       </c>
       <c r="P44" t="n">
-        <v>2288.619414816356</v>
+        <v>2447.922668455691</v>
       </c>
       <c r="Q44" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455691</v>
       </c>
       <c r="R44" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455691</v>
       </c>
       <c r="S44" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455691</v>
       </c>
       <c r="T44" t="n">
         <v>2399.508895017791</v>
       </c>
       <c r="U44" t="n">
-        <v>2317.934720622654</v>
+        <v>2317.934720622655</v>
       </c>
       <c r="V44" t="n">
-        <v>2154.217575046994</v>
+        <v>2154.217575046995</v>
       </c>
       <c r="W44" t="n">
         <v>1964.944773432994</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>913.4851687247186</v>
+        <v>836.3855189669989</v>
       </c>
       <c r="C45" t="n">
-        <v>751.7814959656733</v>
+        <v>674.6818462079536</v>
       </c>
       <c r="D45" t="n">
-        <v>612.9428589558854</v>
+        <v>535.8432091981657</v>
       </c>
       <c r="E45" t="n">
-        <v>465.9148490127566</v>
+        <v>388.8151992550369</v>
       </c>
       <c r="F45" t="n">
-        <v>331.2210509626309</v>
+        <v>254.1214012049113</v>
       </c>
       <c r="G45" t="n">
-        <v>202.8204905086186</v>
+        <v>125.720840750899</v>
       </c>
       <c r="H45" t="n">
-        <v>106.0498384456337</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="I45" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="J45" t="n">
-        <v>48.9584533691138</v>
+        <v>139.579129586005</v>
       </c>
       <c r="K45" t="n">
-        <v>330.350241868577</v>
+        <v>139.579129586005</v>
       </c>
       <c r="L45" t="n">
-        <v>330.350241868577</v>
+        <v>575.1885914868101</v>
       </c>
       <c r="M45" t="n">
-        <v>896.822452434291</v>
+        <v>1141.660802052524</v>
       </c>
       <c r="N45" t="n">
-        <v>1491.682399830277</v>
+        <v>1416.978673320067</v>
       </c>
       <c r="O45" t="n">
-        <v>1960.354804806726</v>
+        <v>1885.651078296516</v>
       </c>
       <c r="P45" t="n">
-        <v>2323.826610502396</v>
+        <v>2249.122883992186</v>
       </c>
       <c r="Q45" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455691</v>
       </c>
       <c r="R45" t="n">
         <v>2408.499416583029</v>
       </c>
       <c r="S45" t="n">
-        <v>2261.791262396855</v>
+        <v>2261.791262396856</v>
       </c>
       <c r="T45" t="n">
-        <v>2151.527634730053</v>
+        <v>2074.427984972333</v>
       </c>
       <c r="U45" t="n">
-        <v>1933.054417296962</v>
+        <v>1855.954767539243</v>
       </c>
       <c r="V45" t="n">
-        <v>1704.658794745296</v>
+        <v>1627.559144987576</v>
       </c>
       <c r="W45" t="n">
-        <v>1463.342925978606</v>
+        <v>1386.243276220886</v>
       </c>
       <c r="X45" t="n">
-        <v>1265.425937856401</v>
+        <v>1188.326288098681</v>
       </c>
       <c r="Y45" t="n">
-        <v>1072.90461150598</v>
+        <v>995.8049617482599</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.9584533691138</v>
+        <v>218.5744229074335</v>
       </c>
       <c r="C46" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="D46" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="E46" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="F46" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="G46" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="H46" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="I46" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="J46" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="K46" t="n">
         <v>113.8692614527295</v>
       </c>
       <c r="L46" t="n">
-        <v>254.538036394738</v>
+        <v>254.5380363947381</v>
       </c>
       <c r="M46" t="n">
-        <v>414.770983406917</v>
+        <v>414.7709834069172</v>
       </c>
       <c r="N46" t="n">
-        <v>574.428406546652</v>
+        <v>574.4284065466522</v>
       </c>
       <c r="O46" t="n">
-        <v>710.9793247974544</v>
+        <v>710.9793247974546</v>
       </c>
       <c r="P46" t="n">
-        <v>806.5380492916083</v>
+        <v>806.5380492916087</v>
       </c>
       <c r="Q46" t="n">
-        <v>806.5380492916083</v>
+        <v>806.5380492916087</v>
       </c>
       <c r="R46" t="n">
-        <v>806.5380492916083</v>
+        <v>806.5380492916087</v>
       </c>
       <c r="S46" t="n">
-        <v>770.8817559550953</v>
+        <v>708.653701276545</v>
       </c>
       <c r="T46" t="n">
-        <v>712.1396470757813</v>
+        <v>649.9115923972309</v>
       </c>
       <c r="U46" t="n">
-        <v>539.6446367764241</v>
+        <v>535.9984777863457</v>
       </c>
       <c r="V46" t="n">
-        <v>452.1714608632454</v>
+        <v>448.5253018731669</v>
       </c>
       <c r="W46" t="n">
-        <v>339.2771879090433</v>
+        <v>335.6310289189647</v>
       </c>
       <c r="X46" t="n">
-        <v>108.0247238044191</v>
+        <v>277.640693342739</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.25169352509489</v>
+        <v>228.8676630634147</v>
       </c>
     </row>
   </sheetData>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>95.59943624652223</v>
       </c>
       <c r="K11" t="n">
-        <v>421.3890363425141</v>
+        <v>101.63731265453</v>
       </c>
       <c r="L11" t="n">
-        <v>470.7430492978069</v>
+        <v>95.8045368555499</v>
       </c>
       <c r="M11" t="n">
-        <v>267.6675531093359</v>
+        <v>336.7069278322367</v>
       </c>
       <c r="N11" t="n">
-        <v>78.12743924032236</v>
+        <v>453.0659516825792</v>
       </c>
       <c r="O11" t="n">
-        <v>84.7178686367975</v>
+        <v>459.6563810790544</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
@@ -8766,19 +8766,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>72.38230935981312</v>
+        <v>72.38230935981311</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891455</v>
       </c>
       <c r="L12" t="n">
-        <v>299.5641669716379</v>
+        <v>417.0214038611932</v>
       </c>
       <c r="M12" t="n">
-        <v>33.22243078841996</v>
+        <v>33.22243078841993</v>
       </c>
       <c r="N12" t="n">
-        <v>22.27645291329996</v>
+        <v>389.8612089156316</v>
       </c>
       <c r="O12" t="n">
         <v>413.5530578288248</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215414</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8927,19 +8927,19 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425141</v>
+        <v>233.5084014354852</v>
       </c>
       <c r="L14" t="n">
-        <v>470.7430492978069</v>
+        <v>95.8045368555499</v>
       </c>
       <c r="M14" t="n">
-        <v>267.6675531093359</v>
+        <v>455.5481880163646</v>
       </c>
       <c r="N14" t="n">
-        <v>78.12743924032236</v>
+        <v>78.12743924032233</v>
       </c>
       <c r="O14" t="n">
-        <v>84.7178686367975</v>
+        <v>459.6563810790544</v>
       </c>
       <c r="P14" t="n">
         <v>418.3383206229274</v>
@@ -9003,28 +9003,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>72.38230935981312</v>
+        <v>72.38230935981311</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>417.0214038611933</v>
+        <v>417.0214038611932</v>
       </c>
       <c r="M15" t="n">
-        <v>290.7037063411215</v>
+        <v>408.1609432306768</v>
       </c>
       <c r="N15" t="n">
-        <v>22.27645291329996</v>
+        <v>397.2149653555568</v>
       </c>
       <c r="O15" t="n">
-        <v>38.61454538656787</v>
+        <v>114.1698972256393</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>46.85836115548395</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215414</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>95.59943624652226</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425141</v>
+        <v>101.63731265453</v>
       </c>
       <c r="L17" t="n">
-        <v>95.80453685554994</v>
+        <v>95.8045368555499</v>
       </c>
       <c r="M17" t="n">
-        <v>80.60967557410781</v>
+        <v>455.5481880163647</v>
       </c>
       <c r="N17" t="n">
-        <v>389.4114802527241</v>
+        <v>453.0659516825792</v>
       </c>
       <c r="O17" t="n">
-        <v>459.6563810790544</v>
+        <v>216.5889574177526</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
@@ -9246,22 +9246,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>417.0214038611933</v>
+        <v>417.0214038611932</v>
       </c>
       <c r="M18" t="n">
-        <v>408.1609432306769</v>
+        <v>33.22243078841993</v>
       </c>
       <c r="N18" t="n">
-        <v>381.23428061191</v>
+        <v>22.27645291329993</v>
       </c>
       <c r="O18" t="n">
-        <v>38.61454538656787</v>
+        <v>204.5597843565508</v>
       </c>
       <c r="P18" t="n">
-        <v>46.85836115548398</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>72.29261096215416</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9404,22 +9404,22 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>470.7430492978069</v>
+        <v>282.8624143907778</v>
       </c>
       <c r="M20" t="n">
-        <v>455.5481880163647</v>
+        <v>80.60967557410777</v>
       </c>
       <c r="N20" t="n">
-        <v>368.8775461539307</v>
+        <v>78.12743924032233</v>
       </c>
       <c r="O20" t="n">
-        <v>84.7178686367975</v>
+        <v>459.6563810790544</v>
       </c>
       <c r="P20" t="n">
-        <v>100.6199562157594</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>115.097110444407</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9480,22 +9480,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>59.57067831891457</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>417.0214038611933</v>
+        <v>42.08289141893633</v>
       </c>
       <c r="M21" t="n">
-        <v>408.1609432306769</v>
+        <v>408.1609432306768</v>
       </c>
       <c r="N21" t="n">
-        <v>397.2149653555569</v>
+        <v>180.4264175174603</v>
       </c>
       <c r="O21" t="n">
-        <v>106.0601273459091</v>
+        <v>413.5530578288248</v>
       </c>
       <c r="P21" t="n">
-        <v>46.85836115548398</v>
+        <v>46.85836115548395</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>95.59943624652226</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>101.63731265453</v>
+        <v>233.5084014354852</v>
       </c>
       <c r="L23" t="n">
-        <v>95.80453685554994</v>
+        <v>95.8045368555499</v>
       </c>
       <c r="M23" t="n">
-        <v>455.5481880163647</v>
+        <v>455.5481880163646</v>
       </c>
       <c r="N23" t="n">
-        <v>453.0659516825793</v>
+        <v>453.0659516825792</v>
       </c>
       <c r="O23" t="n">
-        <v>459.6563810790544</v>
+        <v>84.71786863679748</v>
       </c>
       <c r="P23" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>157.168227673748</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9720,16 +9720,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>417.0214038611933</v>
+        <v>42.08289141893633</v>
       </c>
       <c r="M24" t="n">
-        <v>33.22243078841996</v>
+        <v>33.22243078841993</v>
       </c>
       <c r="N24" t="n">
-        <v>22.27645291329996</v>
+        <v>188.221691883283</v>
       </c>
       <c r="O24" t="n">
-        <v>204.5597843565509</v>
+        <v>413.5530578288248</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
@@ -9954,16 +9954,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891455</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>237.2011091260889</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>94.01961708077388</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10200,10 +10200,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>567.4260867539542</v>
+        <v>94.01961708077386</v>
       </c>
       <c r="O30" t="n">
-        <v>38.6145453865678</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>72.38230935981312</v>
+        <v>72.38230935981311</v>
       </c>
       <c r="K33" t="n">
-        <v>107.0232382276747</v>
+        <v>107.0232382276745</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>72.29261096215416</v>
+        <v>72.29261096215414</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10586,7 +10586,7 @@
         <v>95.59943624652223</v>
       </c>
       <c r="K35" t="n">
-        <v>194.5438581623806</v>
+        <v>355.4562355758499</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10604,7 +10604,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>115.097110444407</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10671,10 +10671,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>33.22243078841993</v>
+        <v>599.2813129437652</v>
       </c>
       <c r="N36" t="n">
-        <v>588.3353350686452</v>
+        <v>22.27645291329993</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10829,7 +10829,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>233.2962518833751</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10838,10 +10838,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>228.1793563790912</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>115.097110444407</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>72.38230935981312</v>
+        <v>72.38230935981311</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>107.6772195647855</v>
+        <v>308.4850826592332</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215414</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>188.5059817543745</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>101.63731265453</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11075,10 +11075,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>418.3383206229274</v>
+        <v>228.1793563790912</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>115.097110444407</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,19 +11136,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>72.38230935981312</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>59.57067831891457</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>451.6665747045498</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>216.9490460765171</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>72.29261096215416</v>
+        <v>72.29261096215414</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.59943624652232</v>
+        <v>95.59943624652223</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11306,16 +11306,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>341.7058235554479</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229274</v>
+        <v>352.4055198562652</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>115.097110444407</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,19 +11373,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>72.38230935981315</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891455</v>
       </c>
       <c r="L45" t="n">
-        <v>42.08289141893644</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>300.3753127795051</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>197.6421644503303</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.1078504188222</v>
       </c>
       <c r="C11" t="n">
-        <v>229.119167376504</v>
+        <v>229.1191673765039</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>241.8426089909375</v>
+        <v>241.8426089909374</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>261.0144250789146</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>184.6142276590014</v>
+        <v>33.09410616228774</v>
       </c>
       <c r="W11" t="n">
-        <v>109.9909708351205</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>229.2145853697049</v>
+        <v>229.2145853697048</v>
       </c>
       <c r="Y11" t="n">
-        <v>240.6111831659036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,19 +23495,19 @@
         <v>241.1078504188222</v>
       </c>
       <c r="C14" t="n">
-        <v>229.1191673765039</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>220.1004714210319</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>261.0144250789146</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>212.9149733740931</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>22.53425353909799</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>103.2926861902832</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>184.6142276590013</v>
       </c>
       <c r="W14" t="n">
-        <v>75.2394856452047</v>
+        <v>209.9143271369582</v>
       </c>
       <c r="X14" t="n">
-        <v>229.2145853697048</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>240.6111831659036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.45971867609086e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1175139.045245985</v>
+        <v>1175139.045245984</v>
       </c>
     </row>
     <row r="14">
@@ -26317,43 +26317,43 @@
         <v>363791.3999659695</v>
       </c>
       <c r="D2" t="n">
-        <v>363791.3999659694</v>
+        <v>363791.3999659696</v>
       </c>
       <c r="E2" t="n">
-        <v>317911.2291068897</v>
+        <v>317911.2291068893</v>
       </c>
       <c r="F2" t="n">
-        <v>317911.2291068893</v>
+        <v>317911.2291068892</v>
       </c>
       <c r="G2" t="n">
         <v>364621.4287347363</v>
       </c>
       <c r="H2" t="n">
-        <v>364621.4287347363</v>
+        <v>364621.4287347362</v>
       </c>
       <c r="I2" t="n">
-        <v>364621.4287347362</v>
+        <v>364621.4287347364</v>
       </c>
       <c r="J2" t="n">
         <v>364621.4287347362</v>
       </c>
       <c r="K2" t="n">
-        <v>364621.4287347362</v>
+        <v>364621.4287347363</v>
       </c>
       <c r="L2" t="n">
         <v>364621.4287347363</v>
       </c>
       <c r="M2" t="n">
-        <v>364621.4287347365</v>
+        <v>364621.4287347363</v>
       </c>
       <c r="N2" t="n">
         <v>364621.4287347363</v>
       </c>
       <c r="O2" t="n">
-        <v>364621.4287347366</v>
+        <v>364621.4287347363</v>
       </c>
       <c r="P2" t="n">
-        <v>364621.4287347365</v>
+        <v>364621.4287347362</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>352409.022033987</v>
+        <v>352409.0220339871</v>
       </c>
       <c r="F3" t="n">
-        <v>4.802132025361061e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>76159.64004103032</v>
+        <v>76159.64004103024</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136355.5574477962</v>
+        <v>136355.5574477963</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>76159.64004103036</v>
+        <v>76159.64004103023</v>
       </c>
       <c r="M3" t="n">
-        <v>83474.368259205</v>
+        <v>83474.36825920508</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4735.800136733474</v>
+        <v>4735.800136733542</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,16 +26433,16 @@
         <v>359427.9628026184</v>
       </c>
       <c r="H4" t="n">
-        <v>359427.9628026185</v>
+        <v>359427.9628026184</v>
       </c>
       <c r="I4" t="n">
-        <v>359427.9628026185</v>
+        <v>359427.9628026184</v>
       </c>
       <c r="J4" t="n">
         <v>348294.7670570374</v>
       </c>
       <c r="K4" t="n">
-        <v>348294.7670570373</v>
+        <v>348294.7670570374</v>
       </c>
       <c r="L4" t="n">
         <v>348294.7670570373</v>
@@ -26451,13 +26451,13 @@
         <v>349934.2306458564</v>
       </c>
       <c r="N4" t="n">
-        <v>349934.2306458565</v>
+        <v>349934.2306458564</v>
       </c>
       <c r="O4" t="n">
-        <v>349934.2306458565</v>
+        <v>349934.2306458564</v>
       </c>
       <c r="P4" t="n">
-        <v>349934.2306458565</v>
+        <v>349934.2306458564</v>
       </c>
     </row>
     <row r="5">
@@ -26482,19 +26482,19 @@
         <v>38612.602411061</v>
       </c>
       <c r="G5" t="n">
-        <v>46615.93338432273</v>
+        <v>46615.93338432272</v>
       </c>
       <c r="H5" t="n">
-        <v>46615.93338432273</v>
+        <v>46615.93338432272</v>
       </c>
       <c r="I5" t="n">
-        <v>46615.93338432273</v>
+        <v>46615.93338432272</v>
       </c>
       <c r="J5" t="n">
-        <v>65173.0991827649</v>
+        <v>65173.09918276491</v>
       </c>
       <c r="K5" t="n">
-        <v>65173.0991827649</v>
+        <v>65173.09918276491</v>
       </c>
       <c r="L5" t="n">
         <v>65173.0991827649</v>
@@ -26503,13 +26503,13 @@
         <v>54919.19757587668</v>
       </c>
       <c r="N5" t="n">
+        <v>54919.19757587668</v>
+      </c>
+      <c r="O5" t="n">
         <v>54919.19757587671</v>
       </c>
-      <c r="O5" t="n">
-        <v>54919.1975758767</v>
-      </c>
       <c r="P5" t="n">
-        <v>54919.19757587669</v>
+        <v>54919.19757587671</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-89592.602490705</v>
+        <v>-89596.9710631722</v>
       </c>
       <c r="C6" t="n">
-        <v>-89592.602490705</v>
+        <v>-89596.9710631722</v>
       </c>
       <c r="D6" t="n">
-        <v>-89592.60249070506</v>
+        <v>-89596.97106317214</v>
       </c>
       <c r="E6" t="n">
-        <v>-376410.6864759509</v>
+        <v>-376656.5296318874</v>
       </c>
       <c r="F6" t="n">
-        <v>-24001.66444196441</v>
+        <v>-24247.50759790045</v>
       </c>
       <c r="G6" t="n">
         <v>-117582.1074932351</v>
       </c>
       <c r="H6" t="n">
-        <v>-41422.4674522049</v>
+        <v>-41422.467452205</v>
       </c>
       <c r="I6" t="n">
-        <v>-41422.46745220501</v>
+        <v>-41422.46745220471</v>
       </c>
       <c r="J6" t="n">
-        <v>-185201.9949528623</v>
+        <v>-185201.9949528624</v>
       </c>
       <c r="K6" t="n">
-        <v>-48846.43750506601</v>
+        <v>-48846.43750506607</v>
       </c>
       <c r="L6" t="n">
-        <v>-125006.0775460963</v>
+        <v>-125006.0775460961</v>
       </c>
       <c r="M6" t="n">
-        <v>-123706.3677462016</v>
+        <v>-123706.3677462018</v>
       </c>
       <c r="N6" t="n">
-        <v>-40231.99948699689</v>
+        <v>-40231.99948699675</v>
       </c>
       <c r="O6" t="n">
-        <v>-44967.79962372999</v>
+        <v>-44967.79962373035</v>
       </c>
       <c r="P6" t="n">
-        <v>-40231.9994869967</v>
+        <v>-40231.99948699684</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="F2" t="n">
         <v>148.9952537040168</v>
       </c>
       <c r="G2" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="H2" t="n">
         <v>244.1948037553047</v>
@@ -26707,7 +26707,7 @@
         <v>244.1948037553047</v>
       </c>
       <c r="J2" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="K2" t="n">
         <v>101.1193002222048</v>
@@ -26722,10 +26722,10 @@
         <v>171.5295072431148</v>
       </c>
       <c r="O2" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="P2" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
     </row>
     <row r="3">
@@ -26762,7 +26762,7 @@
         <v>150.9384803178348</v>
       </c>
       <c r="K3" t="n">
-        <v>150.9384803178349</v>
+        <v>150.9384803178348</v>
       </c>
       <c r="L3" t="n">
         <v>150.9384803178348</v>
@@ -26777,7 +26777,7 @@
         <v>150.9384803178348</v>
       </c>
       <c r="P3" t="n">
-        <v>150.9384803178346</v>
+        <v>150.9384803178348</v>
       </c>
     </row>
     <row r="4">
@@ -26811,25 +26811,25 @@
         <v>374.9385124422569</v>
       </c>
       <c r="J4" t="n">
-        <v>877.9875306160454</v>
+        <v>877.9875306160457</v>
       </c>
       <c r="K4" t="n">
-        <v>877.9875306160455</v>
+        <v>877.9875306160457</v>
       </c>
       <c r="L4" t="n">
-        <v>877.9875306160455</v>
+        <v>877.9875306160457</v>
       </c>
       <c r="M4" t="n">
         <v>611.9806671139222</v>
       </c>
       <c r="N4" t="n">
-        <v>611.9806671139227</v>
+        <v>611.9806671139222</v>
       </c>
       <c r="O4" t="n">
-        <v>611.9806671139226</v>
+        <v>611.9806671139228</v>
       </c>
       <c r="P4" t="n">
-        <v>611.9806671139226</v>
+        <v>611.9806671139228</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="F2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>95.1995500512879</v>
+        <v>95.19955005128782</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.919750170916871</v>
+        <v>5.919750170916899</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95.19955005128794</v>
+        <v>95.19955005128779</v>
       </c>
       <c r="M2" t="n">
-        <v>70.41020702090994</v>
+        <v>70.41020702091008</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.919750170916842</v>
+        <v>5.919750170916757</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>503.0490181737885</v>
+        <v>503.0490181737887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>108.9316489401336</v>
+        <v>108.9316489401335</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="K2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95.1995500512879</v>
+        <v>95.19955005128782</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.919750170916871</v>
+        <v>5.919750170916899</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="C11" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="D11" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="E11" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="F11" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="G11" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="H11" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="I11" t="n">
         <v>147.6958378085047</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.61576569231045</v>
+        <v>51.61576569231044</v>
       </c>
       <c r="S11" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="T11" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="U11" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="V11" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="W11" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="X11" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="Y11" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="C12" t="n">
-        <v>148.9952537040167</v>
+        <v>138.3123125481137</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H12" t="n">
         <v>95.80294554235505</v>
       </c>
       <c r="I12" t="n">
-        <v>56.52047122575468</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S12" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="V12" t="n">
-        <v>148.9952537040167</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>106.1338667417743</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
     </row>
     <row r="13">
@@ -28245,25 +28245,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="C13" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="D13" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="E13" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="F13" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="G13" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="I13" t="n">
         <v>134.5756943977516</v>
@@ -28293,28 +28293,28 @@
         <v>15.3602574048548</v>
       </c>
       <c r="R13" t="n">
-        <v>135.7881746594388</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S13" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="T13" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="U13" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="V13" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="W13" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="X13" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.9952537040167</v>
+        <v>148.9952537040168</v>
       </c>
     </row>
     <row r="14">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.61576569231045</v>
+        <v>51.61576569231044</v>
       </c>
       <c r="S14" t="n">
         <v>148.9952537040168</v>
@@ -28403,16 +28403,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>58.97699875707019</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="C15" t="n">
-        <v>148.9952537040168</v>
+        <v>148.0142573750131</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -28424,7 +28424,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>56.52047122575467</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="C17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="D17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="E17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="F17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="G17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="H17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="I17" t="n">
         <v>147.6958378085047</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.61576569231045</v>
+        <v>51.61576569231044</v>
       </c>
       <c r="S17" t="n">
         <v>171.5295072431148</v>
@@ -28618,19 +28618,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="V17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="W17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="X17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="Y17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
     </row>
     <row r="18">
@@ -28646,7 +28646,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.02901935393508</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>133.3734624958901</v>
+        <v>119.2566194025983</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -28725,16 +28725,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.958367000993</v>
+        <v>54.05954742020411</v>
       </c>
       <c r="H19" t="n">
         <v>155.3589542808002</v>
@@ -28776,16 +28776,16 @@
         <v>229.6841950336356</v>
       </c>
       <c r="U19" t="n">
-        <v>174.3433387924802</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="V19" t="n">
-        <v>244.1948037553047</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>244.1948037553047</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.61576569231045</v>
+        <v>51.61576569231044</v>
       </c>
       <c r="S20" t="n">
         <v>171.5295072431148</v>
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>95.80294554235505</v>
       </c>
       <c r="I21" t="n">
-        <v>56.52047122575468</v>
+        <v>56.52047122575467</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S21" t="n">
-        <v>145.2410726443114</v>
+        <v>145.2410726443113</v>
       </c>
       <c r="T21" t="n">
-        <v>185.4896446502776</v>
+        <v>92.69926453795671</v>
       </c>
       <c r="U21" t="n">
-        <v>216.28848525876</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>32.33242229932208</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28974,7 +28974,7 @@
         <v>166.958367000993</v>
       </c>
       <c r="H22" t="n">
-        <v>155.3589542808002</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>134.5756943977516</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.3602574048548</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.59392222330285</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S22" t="n">
-        <v>206.8292376462626</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>229.6841950336356</v>
@@ -29019,13 +29019,13 @@
         <v>244.1948037553047</v>
       </c>
       <c r="W22" t="n">
-        <v>244.1948037553047</v>
+        <v>234.034508054547</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.61576569231045</v>
+        <v>51.61576569231044</v>
       </c>
       <c r="S23" t="n">
         <v>171.5295072431148</v>
@@ -29117,22 +29117,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>39.0556217802008</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>40.60407792601183</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -29196,13 +29196,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29217,7 +29217,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>40.21324716010341</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29247,22 +29247,22 @@
         <v>206.8292376462626</v>
       </c>
       <c r="T25" t="n">
-        <v>229.6841950336356</v>
+        <v>212.8584382415314</v>
       </c>
       <c r="U25" t="n">
         <v>244.1948037553047</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>244.1948037553047</v>
       </c>
-      <c r="W25" t="n">
-        <v>181.1299178227832</v>
-      </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="C26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="D26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="E26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="F26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="G26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="H26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="I26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="K26" t="n">
-        <v>101.1193002222049</v>
+        <v>45.98902442737113</v>
       </c>
       <c r="L26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="M26" t="n">
-        <v>45.98902442737023</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="N26" t="n">
-        <v>101.1193002222049</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="P26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="R26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="S26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="T26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="U26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="V26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="W26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="X26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="Y26" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="C28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="D28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="E28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="F28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="G28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="H28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="I28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="J28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="K28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="L28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="M28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="N28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="O28" t="n">
-        <v>101.1193002222029</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="P28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="Q28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="R28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="S28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="T28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="U28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="V28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="W28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="X28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="Y28" t="n">
-        <v>101.1193002222049</v>
+        <v>101.1193002222048</v>
       </c>
     </row>
     <row r="29">
@@ -29548,7 +29548,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="O29" t="n">
-        <v>45.98902442737045</v>
+        <v>45.98902442737142</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29706,7 +29706,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="O31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.119300222204</v>
       </c>
       <c r="P31" t="n">
         <v>101.1193002222048</v>
@@ -29770,7 +29770,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>45.98902442737077</v>
       </c>
       <c r="K32" t="n">
         <v>101.1193002222048</v>
@@ -29779,7 +29779,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="M32" t="n">
-        <v>45.98902442737068</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="N32" t="n">
         <v>101.1193002222048</v>
@@ -29791,7 +29791,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>101.1193002222048</v>
@@ -29943,7 +29943,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="O34" t="n">
-        <v>101.1193002222033</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="P34" t="n">
         <v>101.1193002222048</v>
@@ -30077,10 +30077,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>37.29963390620929</v>
       </c>
       <c r="H36" t="n">
-        <v>76.32865326014461</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30159,13 +30159,13 @@
         <v>166.958367000993</v>
       </c>
       <c r="H37" t="n">
-        <v>155.3589542808002</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.5756943977516</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>40.21324716010341</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,13 +30189,13 @@
         <v>15.3602574048548</v>
       </c>
       <c r="R37" t="n">
-        <v>81.05153224258954</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S37" t="n">
         <v>171.5295072431148</v>
       </c>
       <c r="T37" t="n">
-        <v>171.5295072431148</v>
+        <v>97.36287754921207</v>
       </c>
       <c r="U37" t="n">
         <v>171.5295072431148</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.61576569231045</v>
+        <v>51.61576569231044</v>
       </c>
       <c r="S38" t="n">
         <v>171.5295072431148</v>
@@ -30317,10 +30317,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>76.32865326014286</v>
+        <v>19.80818203438996</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>56.52047122575467</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30432,7 +30432,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>113.533430511527</v>
+        <v>113.5334305115268</v>
       </c>
       <c r="U40" t="n">
         <v>171.5295072431148</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="C41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="D41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="E41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="F41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="G41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="H41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="I41" t="n">
         <v>147.6958378085047</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.61576569231045</v>
+        <v>51.61576569231044</v>
       </c>
       <c r="S41" t="n">
         <v>171.5295072431148</v>
       </c>
       <c r="T41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="U41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="V41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="W41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="X41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="Y41" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
     </row>
     <row r="42">
@@ -30551,13 +30551,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>76.32865326014331</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>56.52047122575467</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30593,7 +30593,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>19.80818203438739</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30615,13 +30615,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>108.9053549137827</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>105.3525928692272</v>
+        <v>166.958367000993</v>
       </c>
       <c r="H43" t="n">
         <v>155.3589542808002</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.3602574048548</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>135.7881746594375</v>
       </c>
       <c r="S43" t="n">
-        <v>171.5295072431148</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="U43" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="V43" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="W43" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="X43" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="C44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="D44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="E44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="F44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="G44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="H44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="I44" t="n">
         <v>147.6958378085047</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>51.6157656923105</v>
+        <v>51.61576569231044</v>
       </c>
       <c r="S44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="T44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="U44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="V44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="W44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="X44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="Y44" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
     </row>
     <row r="45">
@@ -30791,10 +30791,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>19.80818203438774</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>56.52047122575467</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30827,7 +30827,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>76.32865326014293</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30876,7 +30876,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J46" t="n">
-        <v>40.21324716010344</v>
+        <v>40.21324716010341</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.36025740485483</v>
+        <v>15.3602574048548</v>
       </c>
       <c r="R46" t="n">
         <v>135.7881746594375</v>
       </c>
       <c r="S46" t="n">
-        <v>171.5295072431148</v>
+        <v>109.9237331113496</v>
       </c>
       <c r="T46" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="U46" t="n">
-        <v>113.5334305115274</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="V46" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="W46" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>171.5295072431146</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431146</v>
       </c>
     </row>
   </sheetData>
@@ -31750,22 +31750,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742099</v>
       </c>
       <c r="H11" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105629</v>
       </c>
       <c r="I11" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478725</v>
       </c>
       <c r="J11" t="n">
-        <v>51.50036118141038</v>
+        <v>51.5003611814104</v>
       </c>
       <c r="K11" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951672</v>
       </c>
       <c r="L11" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756472</v>
       </c>
       <c r="M11" t="n">
         <v>106.5466389230513</v>
@@ -31777,22 +31777,22 @@
         <v>102.236928143323</v>
       </c>
       <c r="P11" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539717</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858326</v>
       </c>
       <c r="R11" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679474</v>
       </c>
       <c r="S11" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T11" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663605</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593678</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760976</v>
       </c>
       <c r="H12" t="n">
-        <v>3.135533336413889</v>
+        <v>3.13553333641389</v>
       </c>
       <c r="I12" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108494</v>
       </c>
       <c r="J12" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685359</v>
       </c>
       <c r="K12" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775213</v>
       </c>
       <c r="L12" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221146</v>
       </c>
       <c r="M12" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321997</v>
       </c>
       <c r="N12" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440838</v>
       </c>
       <c r="O12" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454326</v>
       </c>
       <c r="P12" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865938</v>
       </c>
       <c r="Q12" t="n">
-        <v>41.44258048273834</v>
+        <v>41.44258048273835</v>
       </c>
       <c r="R12" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206859</v>
       </c>
       <c r="S12" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075756</v>
       </c>
       <c r="T12" t="n">
         <v>1.308608145397077</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354398</v>
       </c>
       <c r="H13" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718731</v>
       </c>
       <c r="I13" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596683</v>
       </c>
       <c r="J13" t="n">
-        <v>19.24341903986559</v>
+        <v>19.2434190398656</v>
       </c>
       <c r="K13" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724473</v>
       </c>
       <c r="L13" t="n">
-        <v>40.46635913307983</v>
+        <v>40.46635913307986</v>
       </c>
       <c r="M13" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361353</v>
       </c>
       <c r="N13" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377238</v>
       </c>
       <c r="O13" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183109</v>
       </c>
       <c r="P13" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718809</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799306</v>
       </c>
       <c r="R13" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232805</v>
       </c>
       <c r="S13" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086709</v>
       </c>
       <c r="T13" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842334</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.01484640790011492</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,22 +31987,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742099</v>
       </c>
       <c r="H14" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105629</v>
       </c>
       <c r="I14" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478725</v>
       </c>
       <c r="J14" t="n">
-        <v>51.50036118141038</v>
+        <v>51.5003611814104</v>
       </c>
       <c r="K14" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951672</v>
       </c>
       <c r="L14" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756472</v>
       </c>
       <c r="M14" t="n">
         <v>106.5466389230513</v>
@@ -32014,22 +32014,22 @@
         <v>102.236928143323</v>
       </c>
       <c r="P14" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539717</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858326</v>
       </c>
       <c r="R14" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679474</v>
       </c>
       <c r="S14" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T14" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663605</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593678</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760976</v>
       </c>
       <c r="H15" t="n">
-        <v>3.135533336413889</v>
+        <v>3.13553333641389</v>
       </c>
       <c r="I15" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108494</v>
       </c>
       <c r="J15" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685359</v>
       </c>
       <c r="K15" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775213</v>
       </c>
       <c r="L15" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221146</v>
       </c>
       <c r="M15" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321997</v>
       </c>
       <c r="N15" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440838</v>
       </c>
       <c r="O15" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454326</v>
       </c>
       <c r="P15" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865938</v>
       </c>
       <c r="Q15" t="n">
-        <v>41.44258048273834</v>
+        <v>41.44258048273835</v>
       </c>
       <c r="R15" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206859</v>
       </c>
       <c r="S15" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075756</v>
       </c>
       <c r="T15" t="n">
         <v>1.308608145397077</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354398</v>
       </c>
       <c r="H16" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718731</v>
       </c>
       <c r="I16" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596683</v>
       </c>
       <c r="J16" t="n">
-        <v>19.24341903986559</v>
+        <v>19.2434190398656</v>
       </c>
       <c r="K16" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724473</v>
       </c>
       <c r="L16" t="n">
-        <v>40.46635913307983</v>
+        <v>40.46635913307986</v>
       </c>
       <c r="M16" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361353</v>
       </c>
       <c r="N16" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377238</v>
       </c>
       <c r="O16" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183109</v>
       </c>
       <c r="P16" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718809</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799306</v>
       </c>
       <c r="R16" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232805</v>
       </c>
       <c r="S16" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086709</v>
       </c>
       <c r="T16" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842334</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.01484640790011492</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,22 +32224,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742099</v>
       </c>
       <c r="H17" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105629</v>
       </c>
       <c r="I17" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478725</v>
       </c>
       <c r="J17" t="n">
-        <v>51.50036118141038</v>
+        <v>51.5003611814104</v>
       </c>
       <c r="K17" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951672</v>
       </c>
       <c r="L17" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756472</v>
       </c>
       <c r="M17" t="n">
         <v>106.5466389230513</v>
@@ -32251,22 +32251,22 @@
         <v>102.236928143323</v>
       </c>
       <c r="P17" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539717</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858326</v>
       </c>
       <c r="R17" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679474</v>
       </c>
       <c r="S17" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T17" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663605</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593678</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760976</v>
       </c>
       <c r="H18" t="n">
-        <v>3.135533336413889</v>
+        <v>3.13553333641389</v>
       </c>
       <c r="I18" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108494</v>
       </c>
       <c r="J18" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685359</v>
       </c>
       <c r="K18" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775213</v>
       </c>
       <c r="L18" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221146</v>
       </c>
       <c r="M18" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321997</v>
       </c>
       <c r="N18" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440838</v>
       </c>
       <c r="O18" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454326</v>
       </c>
       <c r="P18" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865938</v>
       </c>
       <c r="Q18" t="n">
-        <v>41.44258048273834</v>
+        <v>41.44258048273835</v>
       </c>
       <c r="R18" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206859</v>
       </c>
       <c r="S18" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075756</v>
       </c>
       <c r="T18" t="n">
         <v>1.308608145397077</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354398</v>
       </c>
       <c r="H19" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718731</v>
       </c>
       <c r="I19" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596683</v>
       </c>
       <c r="J19" t="n">
-        <v>19.24341903986559</v>
+        <v>19.2434190398656</v>
       </c>
       <c r="K19" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724473</v>
       </c>
       <c r="L19" t="n">
-        <v>40.46635913307983</v>
+        <v>40.46635913307986</v>
       </c>
       <c r="M19" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361353</v>
       </c>
       <c r="N19" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377238</v>
       </c>
       <c r="O19" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183109</v>
       </c>
       <c r="P19" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718809</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799306</v>
       </c>
       <c r="R19" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232805</v>
       </c>
       <c r="S19" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086709</v>
       </c>
       <c r="T19" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842334</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.01484640790011492</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,22 +32461,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742099</v>
       </c>
       <c r="H20" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105629</v>
       </c>
       <c r="I20" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478725</v>
       </c>
       <c r="J20" t="n">
-        <v>51.50036118141038</v>
+        <v>51.5003611814104</v>
       </c>
       <c r="K20" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951672</v>
       </c>
       <c r="L20" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756472</v>
       </c>
       <c r="M20" t="n">
         <v>106.5466389230513</v>
@@ -32488,22 +32488,22 @@
         <v>102.236928143323</v>
       </c>
       <c r="P20" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539717</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858326</v>
       </c>
       <c r="R20" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679474</v>
       </c>
       <c r="S20" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T20" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663605</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593678</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760976</v>
       </c>
       <c r="H21" t="n">
-        <v>3.135533336413889</v>
+        <v>3.13553333641389</v>
       </c>
       <c r="I21" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108494</v>
       </c>
       <c r="J21" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685359</v>
       </c>
       <c r="K21" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775213</v>
       </c>
       <c r="L21" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221146</v>
       </c>
       <c r="M21" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321997</v>
       </c>
       <c r="N21" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440838</v>
       </c>
       <c r="O21" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454326</v>
       </c>
       <c r="P21" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865938</v>
       </c>
       <c r="Q21" t="n">
-        <v>41.44258048273834</v>
+        <v>41.44258048273835</v>
       </c>
       <c r="R21" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206859</v>
       </c>
       <c r="S21" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075756</v>
       </c>
       <c r="T21" t="n">
         <v>1.308608145397077</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354398</v>
       </c>
       <c r="H22" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718731</v>
       </c>
       <c r="I22" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596683</v>
       </c>
       <c r="J22" t="n">
-        <v>19.24341903986559</v>
+        <v>19.2434190398656</v>
       </c>
       <c r="K22" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724473</v>
       </c>
       <c r="L22" t="n">
-        <v>40.46635913307983</v>
+        <v>40.46635913307986</v>
       </c>
       <c r="M22" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361353</v>
       </c>
       <c r="N22" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377238</v>
       </c>
       <c r="O22" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183109</v>
       </c>
       <c r="P22" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718809</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799306</v>
       </c>
       <c r="R22" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232805</v>
       </c>
       <c r="S22" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086709</v>
       </c>
       <c r="T22" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842334</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.01484640790011492</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,22 +32698,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742099</v>
       </c>
       <c r="H23" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105629</v>
       </c>
       <c r="I23" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478725</v>
       </c>
       <c r="J23" t="n">
-        <v>51.50036118141038</v>
+        <v>51.5003611814104</v>
       </c>
       <c r="K23" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951672</v>
       </c>
       <c r="L23" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756472</v>
       </c>
       <c r="M23" t="n">
         <v>106.5466389230513</v>
@@ -32725,22 +32725,22 @@
         <v>102.236928143323</v>
       </c>
       <c r="P23" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539717</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858326</v>
       </c>
       <c r="R23" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679474</v>
       </c>
       <c r="S23" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T23" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663605</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593678</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760976</v>
       </c>
       <c r="H24" t="n">
-        <v>3.135533336413889</v>
+        <v>3.13553333641389</v>
       </c>
       <c r="I24" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108494</v>
       </c>
       <c r="J24" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685359</v>
       </c>
       <c r="K24" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775213</v>
       </c>
       <c r="L24" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221146</v>
       </c>
       <c r="M24" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321997</v>
       </c>
       <c r="N24" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440838</v>
       </c>
       <c r="O24" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454326</v>
       </c>
       <c r="P24" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865938</v>
       </c>
       <c r="Q24" t="n">
-        <v>41.44258048273834</v>
+        <v>41.44258048273835</v>
       </c>
       <c r="R24" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206859</v>
       </c>
       <c r="S24" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075756</v>
       </c>
       <c r="T24" t="n">
         <v>1.308608145397077</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354398</v>
       </c>
       <c r="H25" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718731</v>
       </c>
       <c r="I25" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596683</v>
       </c>
       <c r="J25" t="n">
-        <v>19.24341903986559</v>
+        <v>19.2434190398656</v>
       </c>
       <c r="K25" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724473</v>
       </c>
       <c r="L25" t="n">
-        <v>40.46635913307983</v>
+        <v>40.46635913307986</v>
       </c>
       <c r="M25" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361353</v>
       </c>
       <c r="N25" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377238</v>
       </c>
       <c r="O25" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183109</v>
       </c>
       <c r="P25" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718809</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799306</v>
       </c>
       <c r="R25" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232805</v>
       </c>
       <c r="S25" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086709</v>
       </c>
       <c r="T25" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842334</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.01484640790011492</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,22 +32935,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742099</v>
       </c>
       <c r="H26" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105629</v>
       </c>
       <c r="I26" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478725</v>
       </c>
       <c r="J26" t="n">
-        <v>51.50036118141038</v>
+        <v>51.5003611814104</v>
       </c>
       <c r="K26" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951672</v>
       </c>
       <c r="L26" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756472</v>
       </c>
       <c r="M26" t="n">
         <v>106.5466389230513</v>
@@ -32962,22 +32962,22 @@
         <v>102.236928143323</v>
       </c>
       <c r="P26" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539717</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858326</v>
       </c>
       <c r="R26" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679474</v>
       </c>
       <c r="S26" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T26" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663605</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593678</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,43 +33014,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760976</v>
       </c>
       <c r="H27" t="n">
-        <v>3.135533336413889</v>
+        <v>3.13553333641389</v>
       </c>
       <c r="I27" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108494</v>
       </c>
       <c r="J27" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685359</v>
       </c>
       <c r="K27" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775213</v>
       </c>
       <c r="L27" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221146</v>
       </c>
       <c r="M27" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321997</v>
       </c>
       <c r="N27" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440838</v>
       </c>
       <c r="O27" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454326</v>
       </c>
       <c r="P27" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865938</v>
       </c>
       <c r="Q27" t="n">
-        <v>41.44258048273834</v>
+        <v>41.44258048273835</v>
       </c>
       <c r="R27" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206859</v>
       </c>
       <c r="S27" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075756</v>
       </c>
       <c r="T27" t="n">
         <v>1.308608145397077</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354398</v>
       </c>
       <c r="H28" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718731</v>
       </c>
       <c r="I28" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596683</v>
       </c>
       <c r="J28" t="n">
-        <v>19.24341903986559</v>
+        <v>19.2434190398656</v>
       </c>
       <c r="K28" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724473</v>
       </c>
       <c r="L28" t="n">
-        <v>40.46635913307983</v>
+        <v>40.46635913307986</v>
       </c>
       <c r="M28" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361353</v>
       </c>
       <c r="N28" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377238</v>
       </c>
       <c r="O28" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183109</v>
       </c>
       <c r="P28" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718809</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799306</v>
       </c>
       <c r="R28" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232805</v>
       </c>
       <c r="S28" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086709</v>
       </c>
       <c r="T28" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842334</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.01484640790011492</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6067878605742103</v>
+        <v>0.6067878605742099</v>
       </c>
       <c r="H29" t="n">
-        <v>6.214266177105633</v>
+        <v>6.214266177105629</v>
       </c>
       <c r="I29" t="n">
-        <v>23.39318899478726</v>
+        <v>23.39318899478725</v>
       </c>
       <c r="J29" t="n">
-        <v>51.50036118141043</v>
+        <v>51.5003611814104</v>
       </c>
       <c r="K29" t="n">
-        <v>77.18569131951676</v>
+        <v>77.18569131951672</v>
       </c>
       <c r="L29" t="n">
-        <v>95.75567530756477</v>
+        <v>95.75567530756472</v>
       </c>
       <c r="M29" t="n">
-        <v>106.5466389230514</v>
+        <v>106.5466389230513</v>
       </c>
       <c r="N29" t="n">
-        <v>108.2706749319079</v>
+        <v>108.2706749319078</v>
       </c>
       <c r="O29" t="n">
         <v>102.236928143323</v>
       </c>
       <c r="P29" t="n">
-        <v>87.25685283539723</v>
+        <v>87.25685283539717</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.5262625785833</v>
+        <v>65.52626257858326</v>
       </c>
       <c r="R29" t="n">
-        <v>38.11613794679477</v>
+        <v>38.11613794679474</v>
       </c>
       <c r="S29" t="n">
-        <v>13.82717837283483</v>
+        <v>13.82717837283482</v>
       </c>
       <c r="T29" t="n">
-        <v>2.656213859663607</v>
+        <v>2.656213859663605</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04854302884593681</v>
+        <v>0.04854302884593678</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3246601274760977</v>
+        <v>0.3246601274760976</v>
       </c>
       <c r="H30" t="n">
-        <v>3.135533336413892</v>
+        <v>3.13553333641389</v>
       </c>
       <c r="I30" t="n">
-        <v>11.17799123108495</v>
+        <v>11.17799123108494</v>
       </c>
       <c r="J30" t="n">
-        <v>30.67326230685361</v>
+        <v>30.67326230685359</v>
       </c>
       <c r="K30" t="n">
-        <v>52.42549084775216</v>
+        <v>52.42549084775213</v>
       </c>
       <c r="L30" t="n">
-        <v>70.4925421522115</v>
+        <v>70.49254215221146</v>
       </c>
       <c r="M30" t="n">
-        <v>82.26147177322002</v>
+        <v>82.26147177321997</v>
       </c>
       <c r="N30" t="n">
-        <v>84.43868815440842</v>
+        <v>84.43868815440838</v>
       </c>
       <c r="O30" t="n">
-        <v>77.24490322454331</v>
+        <v>77.24490322454326</v>
       </c>
       <c r="P30" t="n">
-        <v>61.99584486865941</v>
+        <v>61.99584486865938</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.44258048273838</v>
+        <v>41.44258048273835</v>
       </c>
       <c r="R30" t="n">
-        <v>20.1574068620686</v>
+        <v>20.15740686206859</v>
       </c>
       <c r="S30" t="n">
-        <v>6.030419473075759</v>
+        <v>6.030419473075756</v>
       </c>
       <c r="T30" t="n">
-        <v>1.308608145397078</v>
+        <v>1.308608145397077</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02135921891290118</v>
+        <v>0.02135921891290116</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.27218414483544</v>
+        <v>0.2721841448354398</v>
       </c>
       <c r="H31" t="n">
-        <v>2.419964487718732</v>
+        <v>2.419964487718731</v>
       </c>
       <c r="I31" t="n">
-        <v>8.185319555596688</v>
+        <v>8.185319555596683</v>
       </c>
       <c r="J31" t="n">
-        <v>19.24341903986561</v>
+        <v>19.2434190398656</v>
       </c>
       <c r="K31" t="n">
-        <v>31.62284882724475</v>
+        <v>31.62284882724473</v>
       </c>
       <c r="L31" t="n">
-        <v>40.46635913307988</v>
+        <v>40.46635913307986</v>
       </c>
       <c r="M31" t="n">
-        <v>42.66610190361355</v>
+        <v>42.66610190361353</v>
       </c>
       <c r="N31" t="n">
-        <v>41.6515973637724</v>
+        <v>41.65159736377238</v>
       </c>
       <c r="O31" t="n">
-        <v>38.47199167183111</v>
+        <v>38.47199167183109</v>
       </c>
       <c r="P31" t="n">
-        <v>32.91943511718811</v>
+        <v>32.91943511718809</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.79171052799307</v>
+        <v>22.79171052799306</v>
       </c>
       <c r="R31" t="n">
         <v>12.23838891232805</v>
       </c>
       <c r="S31" t="n">
-        <v>4.743427324086712</v>
+        <v>4.743427324086709</v>
       </c>
       <c r="T31" t="n">
         <v>1.162968618842334</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01484640790011493</v>
+        <v>0.01484640790011492</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,22 +33409,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742099</v>
       </c>
       <c r="H32" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105629</v>
       </c>
       <c r="I32" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478725</v>
       </c>
       <c r="J32" t="n">
-        <v>51.50036118141038</v>
+        <v>51.5003611814104</v>
       </c>
       <c r="K32" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951672</v>
       </c>
       <c r="L32" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756472</v>
       </c>
       <c r="M32" t="n">
         <v>106.5466389230513</v>
@@ -33436,22 +33436,22 @@
         <v>102.236928143323</v>
       </c>
       <c r="P32" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539717</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858326</v>
       </c>
       <c r="R32" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679474</v>
       </c>
       <c r="S32" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T32" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663605</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593678</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,43 +33488,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760976</v>
       </c>
       <c r="H33" t="n">
-        <v>3.135533336413889</v>
+        <v>3.13553333641389</v>
       </c>
       <c r="I33" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108494</v>
       </c>
       <c r="J33" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685359</v>
       </c>
       <c r="K33" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775213</v>
       </c>
       <c r="L33" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221146</v>
       </c>
       <c r="M33" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321997</v>
       </c>
       <c r="N33" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440838</v>
       </c>
       <c r="O33" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454326</v>
       </c>
       <c r="P33" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865938</v>
       </c>
       <c r="Q33" t="n">
-        <v>41.44258048273834</v>
+        <v>41.44258048273835</v>
       </c>
       <c r="R33" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206859</v>
       </c>
       <c r="S33" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075756</v>
       </c>
       <c r="T33" t="n">
         <v>1.308608145397077</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354398</v>
       </c>
       <c r="H34" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718731</v>
       </c>
       <c r="I34" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596683</v>
       </c>
       <c r="J34" t="n">
-        <v>19.24341903986559</v>
+        <v>19.2434190398656</v>
       </c>
       <c r="K34" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724473</v>
       </c>
       <c r="L34" t="n">
-        <v>40.46635913307983</v>
+        <v>40.46635913307986</v>
       </c>
       <c r="M34" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361353</v>
       </c>
       <c r="N34" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377238</v>
       </c>
       <c r="O34" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183109</v>
       </c>
       <c r="P34" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718809</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799306</v>
       </c>
       <c r="R34" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232805</v>
       </c>
       <c r="S34" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086709</v>
       </c>
       <c r="T34" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842334</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.01484640790011492</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,22 +33883,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742099</v>
       </c>
       <c r="H38" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105629</v>
       </c>
       <c r="I38" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478725</v>
       </c>
       <c r="J38" t="n">
-        <v>51.50036118141038</v>
+        <v>51.5003611814104</v>
       </c>
       <c r="K38" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951672</v>
       </c>
       <c r="L38" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756472</v>
       </c>
       <c r="M38" t="n">
         <v>106.5466389230513</v>
@@ -33910,22 +33910,22 @@
         <v>102.236928143323</v>
       </c>
       <c r="P38" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539717</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858326</v>
       </c>
       <c r="R38" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679474</v>
       </c>
       <c r="S38" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T38" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663605</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593678</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,43 +33962,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760976</v>
       </c>
       <c r="H39" t="n">
-        <v>3.135533336413889</v>
+        <v>3.13553333641389</v>
       </c>
       <c r="I39" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108494</v>
       </c>
       <c r="J39" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685359</v>
       </c>
       <c r="K39" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775213</v>
       </c>
       <c r="L39" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221146</v>
       </c>
       <c r="M39" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321997</v>
       </c>
       <c r="N39" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440838</v>
       </c>
       <c r="O39" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454326</v>
       </c>
       <c r="P39" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865938</v>
       </c>
       <c r="Q39" t="n">
-        <v>41.44258048273834</v>
+        <v>41.44258048273835</v>
       </c>
       <c r="R39" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206859</v>
       </c>
       <c r="S39" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075756</v>
       </c>
       <c r="T39" t="n">
         <v>1.308608145397077</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354398</v>
       </c>
       <c r="H40" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718731</v>
       </c>
       <c r="I40" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596683</v>
       </c>
       <c r="J40" t="n">
-        <v>19.24341903986559</v>
+        <v>19.2434190398656</v>
       </c>
       <c r="K40" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724473</v>
       </c>
       <c r="L40" t="n">
-        <v>40.46635913307983</v>
+        <v>40.46635913307986</v>
       </c>
       <c r="M40" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361353</v>
       </c>
       <c r="N40" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377238</v>
       </c>
       <c r="O40" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183109</v>
       </c>
       <c r="P40" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718809</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799306</v>
       </c>
       <c r="R40" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232805</v>
       </c>
       <c r="S40" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086709</v>
       </c>
       <c r="T40" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842334</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.01484640790011492</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,22 +34120,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742099</v>
       </c>
       <c r="H41" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105629</v>
       </c>
       <c r="I41" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478725</v>
       </c>
       <c r="J41" t="n">
-        <v>51.50036118141038</v>
+        <v>51.5003611814104</v>
       </c>
       <c r="K41" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951672</v>
       </c>
       <c r="L41" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756472</v>
       </c>
       <c r="M41" t="n">
         <v>106.5466389230513</v>
@@ -34147,22 +34147,22 @@
         <v>102.236928143323</v>
       </c>
       <c r="P41" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539717</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858326</v>
       </c>
       <c r="R41" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679474</v>
       </c>
       <c r="S41" t="n">
         <v>13.82717837283482</v>
       </c>
       <c r="T41" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663605</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593678</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,43 +34199,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760976</v>
       </c>
       <c r="H42" t="n">
-        <v>3.135533336413889</v>
+        <v>3.13553333641389</v>
       </c>
       <c r="I42" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108494</v>
       </c>
       <c r="J42" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685359</v>
       </c>
       <c r="K42" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775213</v>
       </c>
       <c r="L42" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221146</v>
       </c>
       <c r="M42" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321997</v>
       </c>
       <c r="N42" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440838</v>
       </c>
       <c r="O42" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454326</v>
       </c>
       <c r="P42" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865938</v>
       </c>
       <c r="Q42" t="n">
-        <v>41.44258048273834</v>
+        <v>41.44258048273835</v>
       </c>
       <c r="R42" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206859</v>
       </c>
       <c r="S42" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075756</v>
       </c>
       <c r="T42" t="n">
         <v>1.308608145397077</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354398</v>
       </c>
       <c r="H43" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718731</v>
       </c>
       <c r="I43" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596683</v>
       </c>
       <c r="J43" t="n">
-        <v>19.24341903986559</v>
+        <v>19.2434190398656</v>
       </c>
       <c r="K43" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724473</v>
       </c>
       <c r="L43" t="n">
-        <v>40.46635913307983</v>
+        <v>40.46635913307986</v>
       </c>
       <c r="M43" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361353</v>
       </c>
       <c r="N43" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377238</v>
       </c>
       <c r="O43" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183109</v>
       </c>
       <c r="P43" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718809</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799306</v>
       </c>
       <c r="R43" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232805</v>
       </c>
       <c r="S43" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086709</v>
       </c>
       <c r="T43" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842334</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.01484640790011492</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.606787860574209</v>
+        <v>0.6067878605742099</v>
       </c>
       <c r="H44" t="n">
-        <v>6.214266177105619</v>
+        <v>6.214266177105629</v>
       </c>
       <c r="I44" t="n">
-        <v>23.39318899478722</v>
+        <v>23.39318899478725</v>
       </c>
       <c r="J44" t="n">
-        <v>51.50036118141032</v>
+        <v>51.5003611814104</v>
       </c>
       <c r="K44" t="n">
-        <v>77.18569131951659</v>
+        <v>77.18569131951672</v>
       </c>
       <c r="L44" t="n">
-        <v>95.75567530756457</v>
+        <v>95.75567530756472</v>
       </c>
       <c r="M44" t="n">
-        <v>106.5466389230511</v>
+        <v>106.5466389230513</v>
       </c>
       <c r="N44" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319078</v>
       </c>
       <c r="O44" t="n">
-        <v>102.2369281433228</v>
+        <v>102.236928143323</v>
       </c>
       <c r="P44" t="n">
-        <v>87.25685283539704</v>
+        <v>87.25685283539717</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.52626257858316</v>
+        <v>65.52626257858326</v>
       </c>
       <c r="R44" t="n">
-        <v>38.11613794679469</v>
+        <v>38.11613794679474</v>
       </c>
       <c r="S44" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283482</v>
       </c>
       <c r="T44" t="n">
-        <v>2.656213859663601</v>
+        <v>2.656213859663605</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04854302884593671</v>
+        <v>0.04854302884593678</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3246601274760971</v>
+        <v>0.3246601274760976</v>
       </c>
       <c r="H45" t="n">
-        <v>3.135533336413885</v>
+        <v>3.13553333641389</v>
       </c>
       <c r="I45" t="n">
-        <v>11.17799123108492</v>
+        <v>11.17799123108494</v>
       </c>
       <c r="J45" t="n">
-        <v>30.67326230685354</v>
+        <v>30.67326230685359</v>
       </c>
       <c r="K45" t="n">
-        <v>52.42549084775204</v>
+        <v>52.42549084775213</v>
       </c>
       <c r="L45" t="n">
-        <v>70.49254215221134</v>
+        <v>70.49254215221146</v>
       </c>
       <c r="M45" t="n">
-        <v>82.26147177321985</v>
+        <v>82.26147177321997</v>
       </c>
       <c r="N45" t="n">
-        <v>84.43868815440825</v>
+        <v>84.43868815440838</v>
       </c>
       <c r="O45" t="n">
-        <v>77.24490322454315</v>
+        <v>77.24490322454326</v>
       </c>
       <c r="P45" t="n">
-        <v>61.99584486865928</v>
+        <v>61.99584486865938</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.44258048273829</v>
+        <v>41.44258048273835</v>
       </c>
       <c r="R45" t="n">
-        <v>20.15740686206856</v>
+        <v>20.15740686206859</v>
       </c>
       <c r="S45" t="n">
-        <v>6.030419473075747</v>
+        <v>6.030419473075756</v>
       </c>
       <c r="T45" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397077</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02135921891290113</v>
+        <v>0.02135921891290116</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2721841448354394</v>
+        <v>0.2721841448354398</v>
       </c>
       <c r="H46" t="n">
-        <v>2.419964487718727</v>
+        <v>2.419964487718731</v>
       </c>
       <c r="I46" t="n">
-        <v>8.185319555596672</v>
+        <v>8.185319555596683</v>
       </c>
       <c r="J46" t="n">
-        <v>19.24341903986556</v>
+        <v>19.2434190398656</v>
       </c>
       <c r="K46" t="n">
-        <v>31.62284882724468</v>
+        <v>31.62284882724473</v>
       </c>
       <c r="L46" t="n">
-        <v>40.46635913307979</v>
+        <v>40.46635913307986</v>
       </c>
       <c r="M46" t="n">
-        <v>42.66610190361347</v>
+        <v>42.66610190361353</v>
       </c>
       <c r="N46" t="n">
-        <v>41.65159736377232</v>
+        <v>41.65159736377238</v>
       </c>
       <c r="O46" t="n">
-        <v>38.47199167183103</v>
+        <v>38.47199167183109</v>
       </c>
       <c r="P46" t="n">
-        <v>32.91943511718804</v>
+        <v>32.91943511718809</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.79171052799303</v>
+        <v>22.79171052799306</v>
       </c>
       <c r="R46" t="n">
-        <v>12.23838891232803</v>
+        <v>12.23838891232805</v>
       </c>
       <c r="S46" t="n">
-        <v>4.743427324086702</v>
+        <v>4.743427324086709</v>
       </c>
       <c r="T46" t="n">
-        <v>1.162968618842332</v>
+        <v>1.162968618842334</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01484640790011489</v>
+        <v>0.01484640790011492</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.2261634771737</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>319.7517236879841</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>256.0972522581289</v>
+      </c>
+      <c r="N11" t="n">
         <v>374.9385124422569</v>
       </c>
-      <c r="M11" t="n">
-        <v>187.0578775352281</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P11" t="n">
         <v>317.7183644071681</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>257.4812755527015</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>367.5847560023316</v>
       </c>
       <c r="O12" t="n">
         <v>374.9385124422569</v>
       </c>
       <c r="P12" t="n">
-        <v>367.1432380764343</v>
+        <v>367.1432380764344</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.8078630944497</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>65.56647281173301</v>
+        <v>65.56647281173304</v>
       </c>
       <c r="L13" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M13" t="n">
-        <v>161.8514616284637</v>
+        <v>161.8514616284638</v>
       </c>
       <c r="N13" t="n">
         <v>161.2701243835707</v>
@@ -35589,7 +35589,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.263187085795734e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>124.2261634771737</v>
       </c>
       <c r="K14" t="n">
-        <v>319.7517236879841</v>
+        <v>131.8710887809552</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>374.9385124422569</v>
       </c>
-      <c r="M14" t="n">
-        <v>187.0578775352281</v>
-      </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P14" t="n">
         <v>317.7183644071681</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>284.2341297974376</v>
+        <v>284.2341297974377</v>
       </c>
       <c r="L15" t="n">
         <v>374.9385124422569</v>
       </c>
       <c r="M15" t="n">
-        <v>257.4812755527016</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>75.55535183907151</v>
       </c>
       <c r="P15" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.8078630944497</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,13 +35805,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>65.56647281173301</v>
+        <v>65.56647281173304</v>
       </c>
       <c r="L16" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M16" t="n">
-        <v>161.8514616284637</v>
+        <v>161.8514616284638</v>
       </c>
       <c r="N16" t="n">
         <v>161.2701243835707</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.2261634771737</v>
       </c>
       <c r="K17" t="n">
-        <v>319.7517236879841</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N17" t="n">
-        <v>311.2840410124017</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O17" t="n">
-        <v>374.9385124422569</v>
+        <v>131.8710887809551</v>
       </c>
       <c r="P17" t="n">
         <v>317.7183644071681</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>91.53603658271837</v>
+        <v>91.53603658271838</v>
       </c>
       <c r="K18" t="n">
-        <v>284.2341297974376</v>
+        <v>284.2341297974377</v>
       </c>
       <c r="L18" t="n">
         <v>374.9385124422569</v>
       </c>
       <c r="M18" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>358.95782769861</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>165.9452389699829</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>367.1432380764344</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>65.56647281173301</v>
+        <v>65.56647281173304</v>
       </c>
       <c r="L19" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M19" t="n">
-        <v>161.8514616284637</v>
+        <v>161.8514616284638</v>
       </c>
       <c r="N19" t="n">
         <v>161.2701243835707</v>
@@ -36121,25 +36121,25 @@
         <v>124.2261634771737</v>
       </c>
       <c r="K20" t="n">
-        <v>319.7517236879841</v>
+        <v>319.7517236879842</v>
       </c>
       <c r="L20" t="n">
+        <v>187.0578775352279</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>374.9385124422569</v>
       </c>
-      <c r="M20" t="n">
-        <v>374.9385124422569</v>
-      </c>
-      <c r="N20" t="n">
-        <v>290.7501069136083</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>317.7183644071681</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>160.9123774134691</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>91.53603658271837</v>
+        <v>91.53603658271838</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>284.2341297974377</v>
       </c>
       <c r="L21" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>374.9385124422569</v>
       </c>
       <c r="N21" t="n">
+        <v>158.1499646041603</v>
+      </c>
+      <c r="O21" t="n">
         <v>374.9385124422569</v>
-      </c>
-      <c r="O21" t="n">
-        <v>67.44558195934124</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>65.56647281173301</v>
+        <v>65.56647281173304</v>
       </c>
       <c r="L22" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M22" t="n">
-        <v>161.8514616284637</v>
+        <v>161.8514616284638</v>
       </c>
       <c r="N22" t="n">
         <v>161.2701243835707</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.2261634771737</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>131.8710887809552</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36370,13 +36370,13 @@
         <v>374.9385124422569</v>
       </c>
       <c r="O23" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>317.7183644071681</v>
       </c>
       <c r="Q23" t="n">
-        <v>42.07111722934098</v>
+        <v>160.9123774134691</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>91.53603658271837</v>
+        <v>91.53603658271838</v>
       </c>
       <c r="K24" t="n">
-        <v>284.2341297974376</v>
+        <v>284.2341297974377</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>165.9452389699831</v>
+      </c>
+      <c r="O24" t="n">
         <v>374.9385124422569</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>165.9452389699831</v>
-      </c>
       <c r="P24" t="n">
-        <v>367.1432380764343</v>
+        <v>367.1432380764344</v>
       </c>
       <c r="Q24" t="n">
         <v>200.8078630944497</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>65.56647281173301</v>
+        <v>65.56647281173304</v>
       </c>
       <c r="L25" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M25" t="n">
-        <v>161.8514616284637</v>
+        <v>161.8514616284638</v>
       </c>
       <c r="N25" t="n">
         <v>161.2701243835707</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.2261634771737</v>
+        <v>225.3454636993785</v>
       </c>
       <c r="K26" t="n">
-        <v>420.871023910189</v>
+        <v>365.7407481153553</v>
       </c>
       <c r="L26" t="n">
         <v>548.2743422822405</v>
       </c>
       <c r="M26" t="n">
-        <v>549.7469423939447</v>
+        <v>604.8772181887794</v>
       </c>
       <c r="N26" t="n">
-        <v>591.5428627174618</v>
+        <v>490.423562495257</v>
       </c>
       <c r="O26" t="n">
-        <v>511.4416672269763</v>
+        <v>511.4416672269762</v>
       </c>
       <c r="P26" t="n">
         <v>418.8376646293729</v>
@@ -36616,7 +36616,7 @@
         <v>262.0316776356739</v>
       </c>
       <c r="R26" t="n">
-        <v>49.50353452989442</v>
+        <v>49.50353452989436</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>91.53603658271837</v>
+        <v>91.53603658271838</v>
       </c>
       <c r="K27" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>440.0095574755605</v>
+        <v>195.1182177071525</v>
       </c>
       <c r="M27" t="n">
-        <v>572.1941520865799</v>
+        <v>572.1941520865801</v>
       </c>
       <c r="N27" t="n">
-        <v>71.74316416747392</v>
+        <v>600.8686337333196</v>
       </c>
       <c r="O27" t="n">
         <v>473.4064696731805</v>
       </c>
       <c r="P27" t="n">
-        <v>367.1432380764343</v>
+        <v>367.1432380764344</v>
       </c>
       <c r="Q27" t="n">
         <v>200.8078630944497</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.90605306210146</v>
+        <v>60.90605306210139</v>
       </c>
       <c r="K28" t="n">
-        <v>166.6857730339379</v>
+        <v>166.6857730339378</v>
       </c>
       <c r="L28" t="n">
-        <v>243.2089718807994</v>
+        <v>243.2089718807993</v>
       </c>
       <c r="M28" t="n">
         <v>262.9707618506686</v>
       </c>
       <c r="N28" t="n">
-        <v>262.3894246057756</v>
+        <v>262.3894246057755</v>
       </c>
       <c r="O28" t="n">
-        <v>239.0495206775589</v>
+        <v>239.0495206775608</v>
       </c>
       <c r="P28" t="n">
         <v>197.6432643577139</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.75904281735006</v>
+        <v>85.75904281735001</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,16 +36844,16 @@
         <v>591.5428627174618</v>
       </c>
       <c r="O29" t="n">
-        <v>456.3113914321419</v>
+        <v>456.3113914321428</v>
       </c>
       <c r="P29" t="n">
-        <v>317.7183644071682</v>
+        <v>317.7183644071681</v>
       </c>
       <c r="Q29" t="n">
-        <v>262.031677635674</v>
+        <v>262.0316776356739</v>
       </c>
       <c r="R29" t="n">
-        <v>49.50353452989438</v>
+        <v>49.50353452989437</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>91.5360365827184</v>
+        <v>91.53603658271838</v>
       </c>
       <c r="K30" t="n">
         <v>284.2341297974377</v>
       </c>
       <c r="L30" t="n">
-        <v>440.0095574755607</v>
+        <v>440.0095574755606</v>
       </c>
       <c r="M30" t="n">
         <v>572.1941520865801</v>
       </c>
       <c r="N30" t="n">
-        <v>545.1496338406544</v>
+        <v>71.74316416747392</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>473.4064696731805</v>
       </c>
       <c r="P30" t="n">
         <v>367.1432380764344</v>
@@ -37002,7 +37002,7 @@
         <v>262.3894246057756</v>
       </c>
       <c r="O31" t="n">
-        <v>239.0495206775608</v>
+        <v>239.04952067756</v>
       </c>
       <c r="P31" t="n">
         <v>197.6432643577139</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.2261634771737</v>
+        <v>170.2151879045445</v>
       </c>
       <c r="K32" t="n">
-        <v>420.871023910189</v>
+        <v>420.8710239101889</v>
       </c>
       <c r="L32" t="n">
         <v>548.2743422822405</v>
       </c>
       <c r="M32" t="n">
-        <v>549.7469423939451</v>
+        <v>604.8772181887794</v>
       </c>
       <c r="N32" t="n">
         <v>591.5428627174618</v>
       </c>
       <c r="O32" t="n">
-        <v>511.4416672269763</v>
+        <v>511.4416672269762</v>
       </c>
       <c r="P32" t="n">
         <v>418.8376646293729</v>
       </c>
       <c r="Q32" t="n">
-        <v>262.0316776356739</v>
+        <v>160.9123774134691</v>
       </c>
       <c r="R32" t="n">
-        <v>49.50353452989439</v>
+        <v>49.50353452989435</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>47.45255990876012</v>
+        <v>47.45255990875994</v>
       </c>
       <c r="L33" t="n">
-        <v>440.0095574755605</v>
+        <v>440.0095574755606</v>
       </c>
       <c r="M33" t="n">
-        <v>572.1941520865799</v>
+        <v>572.1941520865801</v>
       </c>
       <c r="N33" t="n">
         <v>600.8686337333196</v>
@@ -37163,7 +37163,7 @@
         <v>473.4064696731805</v>
       </c>
       <c r="P33" t="n">
-        <v>367.1432380764343</v>
+        <v>367.1432380764344</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.90605306210144</v>
+        <v>60.90605306210138</v>
       </c>
       <c r="K34" t="n">
-        <v>166.6857730339379</v>
+        <v>166.6857730339378</v>
       </c>
       <c r="L34" t="n">
         <v>243.2089718807993</v>
@@ -37236,16 +37236,16 @@
         <v>262.9707618506686</v>
       </c>
       <c r="N34" t="n">
-        <v>262.3894246057756</v>
+        <v>262.3894246057755</v>
       </c>
       <c r="O34" t="n">
-        <v>239.0495206775593</v>
+        <v>239.0495206775608</v>
       </c>
       <c r="P34" t="n">
         <v>197.6432643577139</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.75904281735004</v>
+        <v>85.75904281734999</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>92.90654550785058</v>
+        <v>253.8189229213199</v>
       </c>
       <c r="L35" t="n">
         <v>447.1550420600357</v>
@@ -37324,7 +37324,7 @@
         <v>317.7183644071681</v>
       </c>
       <c r="Q35" t="n">
-        <v>160.9123774134691</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>440.0095574755606</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>566.0588821553453</v>
       </c>
       <c r="N36" t="n">
-        <v>566.0588821553453</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>473.4064696731805</v>
@@ -37543,13 +37543,13 @@
         <v>124.2261634771737</v>
       </c>
       <c r="K38" t="n">
-        <v>319.7517236879841</v>
+        <v>319.7517236879842</v>
       </c>
       <c r="L38" t="n">
-        <v>447.1550420600356</v>
+        <v>447.1550420600357</v>
       </c>
       <c r="M38" t="n">
-        <v>503.7579179665744</v>
+        <v>152.6865763092673</v>
       </c>
       <c r="N38" t="n">
         <v>490.423562495257</v>
@@ -37558,10 +37558,10 @@
         <v>410.3223670047714</v>
       </c>
       <c r="P38" t="n">
-        <v>127.5594001633318</v>
+        <v>317.7183644071681</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>160.9123774134691</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>284.2341297974376</v>
+        <v>284.2341297974377</v>
       </c>
       <c r="L39" t="n">
-        <v>440.0095574755605</v>
+        <v>440.0095574755606</v>
       </c>
       <c r="M39" t="n">
-        <v>572.1941520865799</v>
+        <v>572.1941520865801</v>
       </c>
       <c r="N39" t="n">
-        <v>85.40076665148553</v>
+        <v>286.2086297459333</v>
       </c>
       <c r="O39" t="n">
         <v>473.4064696731805</v>
       </c>
       <c r="P39" t="n">
-        <v>367.1432380764343</v>
+        <v>367.1432380764344</v>
       </c>
       <c r="Q39" t="n">
-        <v>200.8078630944497</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>65.56647281173301</v>
+        <v>65.56647281173304</v>
       </c>
       <c r="L40" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M40" t="n">
-        <v>161.8514616284637</v>
+        <v>161.8514616284638</v>
       </c>
       <c r="N40" t="n">
         <v>161.2701243835707</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>92.90654550785223</v>
+        <v>124.2261634771737</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>319.7517236879842</v>
       </c>
       <c r="L41" t="n">
-        <v>447.1550420600356</v>
+        <v>447.1550420600357</v>
       </c>
       <c r="M41" t="n">
-        <v>503.7579179665744</v>
+        <v>503.7579179665745</v>
       </c>
       <c r="N41" t="n">
         <v>490.423562495257</v>
@@ -37795,10 +37795,10 @@
         <v>410.3223670047714</v>
       </c>
       <c r="P41" t="n">
-        <v>317.7183644071681</v>
+        <v>127.5594001633318</v>
       </c>
       <c r="Q41" t="n">
-        <v>160.9123774134691</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>91.53603658271838</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>284.2341297974377</v>
       </c>
       <c r="L42" t="n">
-        <v>409.5836832856135</v>
+        <v>440.0095574755606</v>
       </c>
       <c r="M42" t="n">
-        <v>572.1941520865799</v>
+        <v>572.1941520865801</v>
       </c>
       <c r="N42" t="n">
-        <v>600.8686337333196</v>
+        <v>194.6725931632172</v>
       </c>
       <c r="O42" t="n">
         <v>473.4064696731805</v>
       </c>
       <c r="P42" t="n">
-        <v>367.1432380764343</v>
+        <v>367.1432380764344</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>65.56647281173301</v>
+        <v>65.56647281173304</v>
       </c>
       <c r="L43" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M43" t="n">
-        <v>161.8514616284637</v>
+        <v>161.8514616284638</v>
       </c>
       <c r="N43" t="n">
         <v>161.2701243835707</v>
@@ -38017,25 +38017,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>319.7517236879841</v>
+        <v>319.7517236879842</v>
       </c>
       <c r="L44" t="n">
-        <v>447.1550420600355</v>
+        <v>447.1550420600357</v>
       </c>
       <c r="M44" t="n">
-        <v>503.7579179665743</v>
+        <v>503.7579179665745</v>
       </c>
       <c r="N44" t="n">
-        <v>263.5783843151254</v>
+        <v>490.423562495257</v>
       </c>
       <c r="O44" t="n">
-        <v>410.3223670047713</v>
+        <v>410.3223670047714</v>
       </c>
       <c r="P44" t="n">
-        <v>317.718364407168</v>
+        <v>251.7855636405058</v>
       </c>
       <c r="Q44" t="n">
-        <v>160.912377413469</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>91.53603658271838</v>
       </c>
       <c r="K45" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>440.0095574755606</v>
       </c>
       <c r="M45" t="n">
-        <v>572.1941520865798</v>
+        <v>572.1941520865801</v>
       </c>
       <c r="N45" t="n">
-        <v>600.8686337333195</v>
+        <v>278.0988598662051</v>
       </c>
       <c r="O45" t="n">
-        <v>473.4064696731804</v>
+        <v>473.4064696731805</v>
       </c>
       <c r="P45" t="n">
-        <v>367.1432380764343</v>
+        <v>367.1432380764344</v>
       </c>
       <c r="Q45" t="n">
-        <v>125.3495534881761</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>65.56647281173298</v>
+        <v>65.56647281173304</v>
       </c>
       <c r="L46" t="n">
         <v>142.0896716585945</v>
       </c>
       <c r="M46" t="n">
-        <v>161.8514616284637</v>
+        <v>161.8514616284638</v>
       </c>
       <c r="N46" t="n">
         <v>161.2701243835707</v>
@@ -38190,7 +38190,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P46" t="n">
-        <v>96.52396413550905</v>
+        <v>96.52396413550909</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
